--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\DToPaSoVAbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/dtopasovabic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52CADA-5326-4796-B565-A446D9449579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D58E8D-A4DF-924C-B0A1-7E07C7930C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3791,7 +3791,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3846,36 +3846,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3984,6 +3954,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4267,21 +4268,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="86">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4289,197 +4293,197 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="85" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="75" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="85" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="75" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="85" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="75" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>0.9686815713640794</v>
       </c>
@@ -4506,21 +4510,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="24" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="27.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -4529,192 +4533,192 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="85"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="28"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="80"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="28"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="28"/>
-    </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="80"/>
+    </row>
+    <row r="7" spans="1:38" ht="120" x14ac:dyDescent="0.15">
+      <c r="A7" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
@@ -4940,7 +4944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>88</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
@@ -5326,107 +5330,107 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="22.5" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="39" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="20" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="31">
         <v>212</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -5435,7 +5439,7 @@
       <c r="H4" s="20">
         <v>3254</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="31">
         <v>325</v>
       </c>
       <c r="J4" s="4">
@@ -5444,22 +5448,22 @@
       <c r="K4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="O4" s="40"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="L4" s="32"/>
+      <c r="O4" s="30"/>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="20" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="31" t="s">
         <v>163</v>
       </c>
       <c r="G5" s="20">
@@ -5468,7 +5472,7 @@
       <c r="H5" s="20">
         <v>21</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="31" t="s">
         <v>164</v>
       </c>
       <c r="J5" s="4">
@@ -5477,7 +5481,7 @@
       <c r="K5" s="4">
         <v>239</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="32">
         <v>23</v>
       </c>
       <c r="M5">
@@ -5486,7 +5490,7 @@
       <c r="N5">
         <v>242</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="30">
         <v>24</v>
       </c>
       <c r="P5" s="4">
@@ -5498,18 +5502,18 @@
       <c r="R5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="30" t="s">
         <v>168</v>
       </c>
       <c r="D6">
@@ -5518,7 +5522,7 @@
       <c r="E6">
         <v>185400</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="30"/>
       <c r="G6">
         <f>815300-284200</f>
         <v>531100</v>
@@ -5526,7 +5530,7 @@
       <c r="H6">
         <v>284200</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="30"/>
       <c r="J6">
         <v>93600</v>
       </c>
@@ -5534,7 +5538,7 @@
         <f>404500-93600</f>
         <v>310900</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="30"/>
       <c r="M6">
         <f>83700+59200+66600</f>
         <v>209500</v>
@@ -5543,7 +5547,7 @@
         <f>62100+62700+57600</f>
         <v>182400</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="30"/>
       <c r="P6">
         <v>397500</v>
       </c>
@@ -5553,16 +5557,16 @@
       <c r="R6">
         <v>50300</v>
       </c>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="30" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="21">
@@ -5573,7 +5577,7 @@
         <f>D40*10^6</f>
         <v>268953000000</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="30"/>
       <c r="G7">
         <f>SUM(D278:D284,D289:D296)*10^6</f>
         <v>515925000000</v>
@@ -5582,17 +5586,17 @@
         <f>SUM(D285:D288)*10^6</f>
         <v>269601000000</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="44">
+      <c r="I7" s="30"/>
+      <c r="J7" s="34">
         <f>D77*10^6</f>
         <v>25886000000</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="34">
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>93232000000</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="44">
+      <c r="L7" s="30"/>
+      <c r="M7" s="34">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>127020000000</v>
       </c>
@@ -5600,61 +5604,61 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>100094000000</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="44">
+      <c r="O7" s="30"/>
+      <c r="P7" s="34">
         <f>SUM(D48:D57)*10^6</f>
         <v>413205000000</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="34">
         <f>D58*10^6</f>
         <v>86048000000</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="34">
         <f>D59*10^6</f>
         <v>14508000000</v>
       </c>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="S7" s="30"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="30" t="s">
         <v>139</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22">
         <v>268953000000</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="35">
         <v>106189000000</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="45">
+      <c r="I8" s="35">
         <v>785526000000</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="36">
         <v>119118000000</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="36">
         <v>227114000000</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="36">
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="40" t="str">
+      <c r="C9" s="30" t="str">
         <f>A9</f>
         <v>Value Added</v>
       </c>
@@ -5666,68 +5670,68 @@
         <f>I33*10^6</f>
         <v>158231000000</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="35">
         <f>I34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="37">
         <f>$I9*(G$7/$I$8)</f>
         <v>218698327521.9407</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="37">
         <f>$I9*(H$7/$I$8)</f>
         <v>114282672478.05928</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="35">
         <f>I58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="37">
         <f>$L9*(J$7/$L$8)</f>
         <v>11878596400.208197</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="37">
         <f>$L9*(K$7/$L$8)</f>
         <v>42782403599.791801</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="36">
         <f>I41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="37">
         <f>$O9*(M$7/$O$8)</f>
         <v>33593628398.073215</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="37">
         <f>$O9*(N$7/$O$8)</f>
         <v>26472371601.926785</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="36">
         <f>I42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="37">
         <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
         <v>240665210526.3158</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="37">
         <f t="shared" si="0"/>
         <v>50117399439.426971</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="37">
         <f>$S9*(R$7/$S$8)</f>
         <v>8449972469.6356268</v>
       </c>
-      <c r="S9" s="46">
+      <c r="S9" s="36">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="40" t="str">
+      <c r="C10" s="30" t="str">
         <f t="shared" ref="C10:C12" si="1">A10</f>
         <v>Compensation of employees</v>
       </c>
@@ -5739,68 +5743,68 @@
         <f>J33*10^6</f>
         <v>38814000000</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="35">
         <f>J34*10^6</f>
         <v>18055000000</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="37">
         <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
         <v>65995493274.57016</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="37">
         <f t="shared" si="3"/>
         <v>34486506725.42984</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="35">
         <f>J58*10^6</f>
         <v>100482000000</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="37">
         <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
         <v>5884861062.1400633</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="37">
         <f t="shared" si="4"/>
         <v>21195138937.859936</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="36">
         <f>J41*10^6</f>
         <v>27080000000</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="37">
         <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
         <v>17693337795.116112</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="37">
         <f t="shared" si="5"/>
         <v>13942662204.883892</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="36">
         <f>J42*10^6</f>
         <v>31636000000</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="37">
         <f t="shared" si="0"/>
         <v>62434361842.105263</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="37">
         <f t="shared" si="0"/>
         <v>13001662535.035814</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="37">
         <f t="shared" si="0"/>
         <v>2192126720.6477733</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="36">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="40" t="str">
+      <c r="C11" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Taxes on production and imports, less subsidies</v>
       </c>
@@ -5812,68 +5816,68 @@
         <f>K33*10^6</f>
         <v>32690000000</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="35">
         <f>K34*10^6</f>
         <v>4968000000</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="37">
         <f t="shared" si="3"/>
         <v>10700409789.109463</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="37">
         <f t="shared" si="3"/>
         <v>5591590210.8905363</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="35">
         <f>K58*10^6</f>
         <v>16292000000</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="37">
         <f t="shared" si="4"/>
         <v>314235934.11575079</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="37">
         <f t="shared" si="4"/>
         <v>1131764065.8842492</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="36">
         <f>K41*10^6</f>
         <v>1446000000</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="37">
         <f t="shared" si="5"/>
         <v>1388688764.2329404</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="37">
         <f t="shared" si="5"/>
         <v>1094311235.7670598</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="36">
         <f>K42*10^6</f>
         <v>2483000000</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="37">
         <f t="shared" si="0"/>
         <v>47461149671.052628</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="37">
         <f t="shared" si="0"/>
         <v>9883561445.0326996</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="37">
         <f t="shared" si="0"/>
         <v>1666403744.9392712</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11" s="36">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="40" t="str">
+      <c r="C12" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Gross operating surplus</v>
       </c>
@@ -5885,106 +5889,106 @@
         <f>L33*10^6</f>
         <v>86727000000</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="35">
         <f>L34*10^6</f>
         <v>26971000000</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="37">
         <f t="shared" si="3"/>
         <v>142001767669.05234</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="37">
         <f t="shared" si="3"/>
         <v>74204232330.947662</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="35">
         <f>L58*10^6</f>
         <v>216206000000</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="37">
         <f t="shared" si="4"/>
         <v>5679499403.952384</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="37">
         <f t="shared" si="4"/>
         <v>20455500596.047615</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="36">
         <f>L41*10^6</f>
         <v>26135000000</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="37">
         <f t="shared" si="5"/>
         <v>14511601838.724167</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="37">
         <f t="shared" si="5"/>
         <v>11435398161.275835</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="36">
         <f>L42*10^6</f>
         <v>25947000000</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="37">
         <f t="shared" si="0"/>
         <v>130769699013.1579</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="37">
         <f t="shared" si="0"/>
         <v>27232175459.358456</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="37">
         <f t="shared" si="0"/>
         <v>4591442004.048583</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12" s="36">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="78"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="78"/>
-      <c r="G16" s="78"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="78"/>
-      <c r="G17" s="78"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D15" s="68"/>
+      <c r="G15" s="68"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D16" s="68"/>
+      <c r="G16" s="68"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="68"/>
+      <c r="G17" s="68"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G25" s="1" t="s">
         <v>177</v>
       </c>
@@ -5992,42 +5996,42 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="51" t="s">
+      <c r="H26" s="39"/>
+      <c r="I26" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="52" t="s">
+      <c r="L26" s="42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="43">
         <v>34314</v>
       </c>
       <c r="G27" t="s">
@@ -6036,27 +6040,27 @@
       <c r="H27" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="43">
         <v>18238301</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="43">
         <v>9709535</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="43">
         <v>1217959</v>
       </c>
-      <c r="L27" s="53">
+      <c r="L27" s="43">
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="43">
         <v>61876</v>
       </c>
       <c r="G28" t="s">
@@ -6065,28 +6069,28 @@
       <c r="H28" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="43">
         <v>15898859</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="43">
         <v>7863213</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="43">
         <v>1242490</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L28" s="43">
         <v>6793156</v>
       </c>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>187</v>
       </c>
       <c r="C29" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="43">
         <v>19404</v>
       </c>
       <c r="G29" t="s">
@@ -6095,28 +6099,28 @@
       <c r="H29" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="43">
         <v>182283</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="43">
         <v>50616</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="43">
         <v>2314</v>
       </c>
-      <c r="L29" s="53">
+      <c r="L29" s="43">
         <v>129354</v>
       </c>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="43">
         <v>28308</v>
       </c>
       <c r="G30" t="s">
@@ -6125,28 +6129,28 @@
       <c r="H30" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="43">
         <v>147384</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="43">
         <v>27205</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="43">
         <v>789</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="43">
         <v>119390</v>
       </c>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>193</v>
       </c>
       <c r="C31" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="43">
         <v>22098</v>
       </c>
       <c r="G31" t="s">
@@ -6155,27 +6159,27 @@
       <c r="H31" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="43">
         <v>34899</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="43">
         <v>23410</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="43">
         <v>1525</v>
       </c>
-      <c r="L31" s="53">
+      <c r="L31" s="43">
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>196</v>
       </c>
       <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="43">
         <v>22767</v>
       </c>
       <c r="G32" t="s">
@@ -6184,85 +6188,85 @@
       <c r="H32" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="43">
         <v>261774</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="43">
         <v>91867</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="43">
         <v>40072</v>
       </c>
-      <c r="L32" s="53">
+      <c r="L32" s="43">
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>199</v>
       </c>
       <c r="C33" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="43">
         <v>36867</v>
       </c>
       <c r="G33" t="s">
         <v>199</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="43">
         <v>158231</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="43">
         <v>38814</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="43">
         <v>32690</v>
       </c>
-      <c r="L33" s="53">
+      <c r="L33" s="43">
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>202</v>
       </c>
       <c r="C34" t="s">
         <v>203</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="43">
         <v>93695</v>
       </c>
       <c r="G34" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="43">
         <v>49994</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="43">
         <v>18055</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="43">
         <v>4968</v>
       </c>
-      <c r="L34" s="53">
+      <c r="L34" s="43">
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>205</v>
       </c>
       <c r="C35" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="43">
         <v>50423</v>
       </c>
       <c r="G35" t="s">
@@ -6271,56 +6275,56 @@
       <c r="H35" t="s">
         <v>207</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="43">
         <v>53550</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="43">
         <v>34998</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="43">
         <v>2415</v>
       </c>
-      <c r="L35" s="53">
+      <c r="L35" s="43">
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>208</v>
       </c>
       <c r="C36" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="43">
         <v>36649</v>
       </c>
       <c r="G36" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I36" s="43">
         <v>299232</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="43">
         <v>77628</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="43">
         <v>59011</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="43">
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>211</v>
       </c>
       <c r="C37" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="43">
         <v>21437</v>
       </c>
       <c r="G37" t="s">
@@ -6329,27 +6333,27 @@
       <c r="H37" t="s">
         <v>213</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="43">
         <v>694943</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="43">
         <v>458477</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="43">
         <v>8976</v>
       </c>
-      <c r="L37" s="53">
+      <c r="L37" s="43">
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>214</v>
       </c>
       <c r="C38" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="43">
         <v>8667</v>
       </c>
       <c r="G38" t="s">
@@ -6358,27 +6362,27 @@
       <c r="H38" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="43">
         <v>2129592</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="43">
         <v>1006425</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="43">
         <v>85526</v>
       </c>
-      <c r="L38" s="53">
+      <c r="L38" s="43">
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>217</v>
       </c>
       <c r="C39" t="s">
         <v>218</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="43">
         <v>23422</v>
       </c>
       <c r="G39" t="s">
@@ -6387,27 +6391,27 @@
       <c r="H39" t="s">
         <v>219</v>
       </c>
-      <c r="I39" s="53">
+      <c r="I39" s="43">
         <v>1183755</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="43">
         <v>662696</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="43">
         <v>30260</v>
       </c>
-      <c r="L39" s="53">
+      <c r="L39" s="43">
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="43">
         <v>268953</v>
       </c>
       <c r="E40" t="s">
@@ -6419,27 +6423,27 @@
       <c r="H40" t="s">
         <v>222</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="43">
         <v>32485</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="43">
         <v>20428</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="43">
         <v>704</v>
       </c>
-      <c r="L40" s="53">
+      <c r="L40" s="43">
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="43">
         <v>40135</v>
       </c>
       <c r="E41" t="s">
@@ -6448,59 +6452,59 @@
       <c r="G41" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="43">
         <v>54661</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="43">
         <v>27080</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="43">
         <v>1446</v>
       </c>
-      <c r="L41" s="53">
+      <c r="L41" s="43">
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>226</v>
       </c>
       <c r="C42" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="43">
         <v>11643</v>
       </c>
       <c r="G42" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="43">
         <v>60066</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J42" s="43">
         <v>31636</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K42" s="43">
         <v>2483</v>
       </c>
-      <c r="L42" s="53">
+      <c r="L42" s="43">
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>229</v>
       </c>
       <c r="C43" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="43">
         <v>14089</v>
       </c>
       <c r="G43" t="s">
@@ -6509,27 +6513,27 @@
       <c r="H43" t="s">
         <v>231</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="43">
         <v>147361</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="43">
         <v>97092</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K43" s="43">
         <v>3374</v>
       </c>
-      <c r="L43" s="53">
+      <c r="L43" s="43">
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>232</v>
       </c>
       <c r="C44" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="43">
         <v>19415</v>
       </c>
       <c r="G44" t="s">
@@ -6538,27 +6542,27 @@
       <c r="H44" t="s">
         <v>234</v>
       </c>
-      <c r="I44" s="53">
+      <c r="I44" s="43">
         <v>152472</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="43">
         <v>94664</v>
       </c>
-      <c r="K44" s="53">
+      <c r="K44" s="43">
         <v>3548</v>
       </c>
-      <c r="L44" s="53">
+      <c r="L44" s="43">
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>235</v>
       </c>
       <c r="C45" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="43">
         <v>20908</v>
       </c>
       <c r="G45" t="s">
@@ -6567,27 +6571,27 @@
       <c r="H45" t="s">
         <v>237</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="43">
         <v>267323</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="43">
         <v>137529</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="43">
         <v>8570</v>
       </c>
-      <c r="L45" s="53">
+      <c r="L45" s="43">
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>238</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="43">
         <v>32318</v>
       </c>
       <c r="G46" t="s">
@@ -6596,27 +6600,27 @@
       <c r="H46" t="s">
         <v>240</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="43">
         <v>63631</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J46" s="43">
         <v>34671</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K46" s="43">
         <v>879</v>
       </c>
-      <c r="L46" s="53">
+      <c r="L46" s="43">
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>241</v>
       </c>
       <c r="C47" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="43">
         <v>88512</v>
       </c>
       <c r="G47" t="s">
@@ -6625,27 +6629,27 @@
       <c r="H47" t="s">
         <v>243</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="43">
         <v>146240</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J47" s="43">
         <v>69905</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K47" s="43">
         <v>3414</v>
       </c>
-      <c r="L47" s="53">
+      <c r="L47" s="43">
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="43">
         <v>3124</v>
       </c>
       <c r="E48" t="s">
@@ -6657,27 +6661,27 @@
       <c r="H48" t="s">
         <v>247</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="43">
         <v>149076</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="43">
         <v>77790</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K48" s="43">
         <v>2485</v>
       </c>
-      <c r="L48" s="53">
+      <c r="L48" s="43">
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>248</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="43">
         <v>103566</v>
       </c>
       <c r="E49" t="s">
@@ -6689,27 +6693,27 @@
       <c r="H49" t="s">
         <v>250</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="43">
         <v>29141</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="43">
         <v>20277</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="43">
         <v>387</v>
       </c>
-      <c r="L49" s="53">
+      <c r="L49" s="43">
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D50" s="43">
         <v>36820</v>
       </c>
       <c r="E50" t="s">
@@ -6721,27 +6725,27 @@
       <c r="H50" t="s">
         <v>253</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="43">
         <v>81299</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="43">
         <v>51622</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="43">
         <v>2969</v>
       </c>
-      <c r="L50" s="53">
+      <c r="L50" s="43">
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="43">
         <v>749</v>
       </c>
       <c r="E51" t="s">
@@ -6753,27 +6757,27 @@
       <c r="H51" t="s">
         <v>256</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="43">
         <v>945837</v>
       </c>
-      <c r="J51" s="53">
+      <c r="J51" s="43">
         <v>343730</v>
       </c>
-      <c r="K51" s="53">
+      <c r="K51" s="43">
         <v>55266</v>
       </c>
-      <c r="L51" s="53">
+      <c r="L51" s="43">
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="43">
         <v>6621</v>
       </c>
       <c r="E52" t="s">
@@ -6785,27 +6789,27 @@
       <c r="H52" t="s">
         <v>259</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="43">
         <v>261724</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="43">
         <v>103480</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="43">
         <v>30122</v>
       </c>
-      <c r="L52" s="53">
+      <c r="L52" s="43">
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>260</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="43">
         <v>1416</v>
       </c>
       <c r="E53" t="s">
@@ -6817,27 +6821,27 @@
       <c r="H53" t="s">
         <v>262</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="43">
         <v>17936</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="43">
         <v>12017</v>
       </c>
-      <c r="K53" s="53">
+      <c r="K53" s="43">
         <v>571</v>
       </c>
-      <c r="L53" s="53">
+      <c r="L53" s="43">
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="43">
         <v>1101</v>
       </c>
       <c r="E54" t="s">
@@ -6849,27 +6853,27 @@
       <c r="H54" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="53">
+      <c r="I54" s="43">
         <v>9694</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="43">
         <v>8174</v>
       </c>
-      <c r="K54" s="53">
+      <c r="K54" s="43">
         <v>290</v>
       </c>
-      <c r="L54" s="53">
+      <c r="L54" s="43">
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="53">
+      <c r="D55" s="43">
         <v>228</v>
       </c>
       <c r="E55" t="s">
@@ -6881,27 +6885,27 @@
       <c r="H55" t="s">
         <v>268</v>
       </c>
-      <c r="I55" s="53">
+      <c r="I55" s="43">
         <v>59668</v>
       </c>
-      <c r="J55" s="53">
+      <c r="J55" s="43">
         <v>30172</v>
       </c>
-      <c r="K55" s="53">
+      <c r="K55" s="43">
         <v>1736</v>
       </c>
-      <c r="L55" s="53">
+      <c r="L55" s="43">
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="43">
         <v>12770</v>
       </c>
       <c r="E56" t="s">
@@ -6913,27 +6917,27 @@
       <c r="H56" t="s">
         <v>271</v>
       </c>
-      <c r="I56" s="53">
+      <c r="I56" s="43">
         <v>40211</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="43">
         <v>26028</v>
       </c>
-      <c r="K56" s="53">
+      <c r="K56" s="43">
         <v>762</v>
       </c>
-      <c r="L56" s="53">
+      <c r="L56" s="43">
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="43">
         <v>246810</v>
       </c>
       <c r="E57" t="s">
@@ -6945,27 +6949,27 @@
       <c r="H57" t="s">
         <v>274</v>
       </c>
-      <c r="I57" s="53">
+      <c r="I57" s="43">
         <v>145371</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="43">
         <v>19815</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="43">
         <v>3677</v>
       </c>
-      <c r="L57" s="53">
+      <c r="L57" s="43">
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>275</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="53">
+      <c r="D58" s="43">
         <v>86048</v>
       </c>
       <c r="E58" t="s">
@@ -6974,30 +6978,30 @@
       <c r="G58" t="s">
         <v>275</v>
       </c>
-      <c r="H58" s="54" t="s">
+      <c r="H58" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="43">
         <v>332981</v>
       </c>
-      <c r="J58" s="53">
+      <c r="J58" s="43">
         <v>100482</v>
       </c>
-      <c r="K58" s="53">
+      <c r="K58" s="43">
         <v>16292</v>
       </c>
-      <c r="L58" s="53">
+      <c r="L58" s="43">
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>279</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="43">
         <v>14508</v>
       </c>
       <c r="E59" t="s">
@@ -7009,27 +7013,27 @@
       <c r="H59" t="s">
         <v>282</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="43">
         <v>78252</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="43">
         <v>43560</v>
       </c>
-      <c r="K59" s="53">
+      <c r="K59" s="43">
         <v>1817</v>
       </c>
-      <c r="L59" s="53">
+      <c r="L59" s="43">
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>283</v>
       </c>
       <c r="C60" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="43">
         <v>40117</v>
       </c>
       <c r="G60" t="s">
@@ -7038,27 +7042,27 @@
       <c r="H60" t="s">
         <v>285</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="43">
         <v>1142867</v>
       </c>
-      <c r="J60" s="53">
+      <c r="J60" s="43">
         <v>509809</v>
       </c>
-      <c r="K60" s="53">
+      <c r="K60" s="43">
         <v>210383</v>
       </c>
-      <c r="L60" s="53">
+      <c r="L60" s="43">
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>286</v>
       </c>
       <c r="C61" t="s">
         <v>287</v>
       </c>
-      <c r="D61" s="53">
+      <c r="D61" s="43">
         <v>88209</v>
       </c>
       <c r="G61" t="s">
@@ -7067,27 +7071,27 @@
       <c r="H61" t="s">
         <v>288</v>
       </c>
-      <c r="I61" s="53">
+      <c r="I61" s="43">
         <v>1020079</v>
       </c>
-      <c r="J61" s="53">
+      <c r="J61" s="43">
         <v>573627</v>
       </c>
-      <c r="K61" s="53">
+      <c r="K61" s="43">
         <v>216863</v>
       </c>
-      <c r="L61" s="53">
+      <c r="L61" s="43">
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>289</v>
       </c>
       <c r="C62" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="43">
         <v>191101</v>
       </c>
       <c r="G62" t="s">
@@ -7096,27 +7100,27 @@
       <c r="H62" t="s">
         <v>291</v>
       </c>
-      <c r="I62" s="53">
+      <c r="I62" s="43">
         <v>565836</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="43">
         <v>320031</v>
       </c>
-      <c r="K62" s="53">
+      <c r="K62" s="43">
         <v>34977</v>
       </c>
-      <c r="L62" s="53">
+      <c r="L62" s="43">
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>292</v>
       </c>
       <c r="C63" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D63" s="43">
         <v>76959</v>
       </c>
       <c r="G63" t="s">
@@ -7125,27 +7129,27 @@
       <c r="H63" t="s">
         <v>294</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="43">
         <v>117693</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="43">
         <v>48445</v>
       </c>
-      <c r="K63" s="53">
+      <c r="K63" s="43">
         <v>22055</v>
       </c>
-      <c r="L63" s="53">
+      <c r="L63" s="43">
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>295</v>
       </c>
       <c r="C64" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="53">
+      <c r="D64" s="43">
         <v>112928</v>
       </c>
       <c r="G64" t="s">
@@ -7154,27 +7158,27 @@
       <c r="H64" t="s">
         <v>297</v>
       </c>
-      <c r="I64" s="53">
+      <c r="I64" s="43">
         <v>44301</v>
       </c>
-      <c r="J64" s="53">
+      <c r="J64" s="43">
         <v>24226</v>
       </c>
-      <c r="K64" s="53">
+      <c r="K64" s="43">
         <v>208</v>
       </c>
-      <c r="L64" s="53">
+      <c r="L64" s="43">
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>298</v>
       </c>
       <c r="C65" t="s">
         <v>299</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="43">
         <v>55962</v>
       </c>
       <c r="G65" t="s">
@@ -7183,27 +7187,27 @@
       <c r="H65" t="s">
         <v>300</v>
       </c>
-      <c r="I65" s="53">
+      <c r="I65" s="43">
         <v>15792</v>
       </c>
-      <c r="J65" s="53">
+      <c r="J65" s="43">
         <v>7322</v>
       </c>
-      <c r="K65" s="53">
+      <c r="K65" s="43">
         <v>867</v>
       </c>
-      <c r="L65" s="53">
+      <c r="L65" s="43">
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>301</v>
       </c>
       <c r="C66" t="s">
         <v>302</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="43">
         <v>212844</v>
       </c>
       <c r="G66" t="s">
@@ -7212,27 +7216,27 @@
       <c r="H66" t="s">
         <v>303</v>
       </c>
-      <c r="I66" s="53">
+      <c r="I66" s="43">
         <v>149029</v>
       </c>
-      <c r="J66" s="53">
+      <c r="J66" s="43">
         <v>92014</v>
       </c>
-      <c r="K66" s="53">
+      <c r="K66" s="43">
         <v>4144</v>
       </c>
-      <c r="L66" s="53">
+      <c r="L66" s="43">
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>304</v>
       </c>
       <c r="C67" t="s">
         <v>305</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="43">
         <v>69028</v>
       </c>
       <c r="G67" t="s">
@@ -7241,27 +7245,27 @@
       <c r="H67" t="s">
         <v>306</v>
       </c>
-      <c r="I67" s="53">
+      <c r="I67" s="43">
         <v>42197</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="43">
         <v>19815</v>
       </c>
-      <c r="K67" s="53">
+      <c r="K67" s="43">
         <v>1708</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="43">
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>307</v>
       </c>
       <c r="C68" t="s">
         <v>308</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="43">
         <v>105415</v>
       </c>
       <c r="G68" t="s">
@@ -7270,27 +7274,27 @@
       <c r="H68" t="s">
         <v>309</v>
       </c>
-      <c r="I68" s="53">
+      <c r="I68" s="43">
         <v>36810</v>
       </c>
-      <c r="J68" s="53">
+      <c r="J68" s="43">
         <v>7146</v>
       </c>
-      <c r="K68" s="53">
+      <c r="K68" s="43">
         <v>2951</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="43">
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>310</v>
       </c>
       <c r="C69" t="s">
         <v>311</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="43">
         <v>111108</v>
       </c>
       <c r="G69" t="s">
@@ -7299,27 +7303,27 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="I69" s="53">
+      <c r="I69" s="43">
         <v>108074</v>
       </c>
-      <c r="J69" s="53">
+      <c r="J69" s="43">
         <v>77801</v>
       </c>
-      <c r="K69" s="53">
+      <c r="K69" s="43">
         <v>2263</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="43">
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>313</v>
       </c>
       <c r="C70" t="s">
         <v>314</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="43">
         <v>209093</v>
       </c>
       <c r="G70" t="s">
@@ -7328,27 +7332,27 @@
       <c r="H70" t="s">
         <v>315</v>
       </c>
-      <c r="I70" s="53">
+      <c r="I70" s="43">
         <v>51940</v>
       </c>
-      <c r="J70" s="53">
+      <c r="J70" s="43">
         <v>43261</v>
       </c>
-      <c r="K70" s="53">
+      <c r="K70" s="43">
         <v>781</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="43">
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>316</v>
       </c>
       <c r="C71" t="s">
         <v>317</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="43">
         <v>113347</v>
       </c>
       <c r="G71" t="s">
@@ -7357,27 +7361,27 @@
       <c r="H71" t="s">
         <v>318</v>
       </c>
-      <c r="I71" s="53">
+      <c r="I71" s="43">
         <v>906938</v>
       </c>
-      <c r="J71" s="53">
+      <c r="J71" s="43">
         <v>318675</v>
       </c>
-      <c r="K71" s="53">
+      <c r="K71" s="43">
         <v>55293</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="43">
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>319</v>
       </c>
       <c r="C72" t="s">
         <v>320</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="43">
         <v>29072</v>
       </c>
       <c r="G72" t="s">
@@ -7386,27 +7390,27 @@
       <c r="H72" t="s">
         <v>321</v>
       </c>
-      <c r="I72" s="53">
+      <c r="I72" s="43">
         <v>223597</v>
       </c>
-      <c r="J72" s="53">
+      <c r="J72" s="43">
         <v>114787</v>
       </c>
-      <c r="K72" s="53">
+      <c r="K72" s="43">
         <v>5467</v>
       </c>
-      <c r="L72" s="53">
+      <c r="L72" s="43">
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>322</v>
       </c>
       <c r="C73" t="s">
         <v>323</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="43">
         <v>20986</v>
       </c>
       <c r="G73" t="s">
@@ -7415,27 +7419,27 @@
       <c r="H73" t="s">
         <v>324</v>
       </c>
-      <c r="I73" s="53">
+      <c r="I73" s="43">
         <v>87592</v>
       </c>
-      <c r="J73" s="53">
+      <c r="J73" s="43">
         <v>34244</v>
       </c>
-      <c r="K73" s="53">
+      <c r="K73" s="43">
         <v>6467</v>
       </c>
-      <c r="L73" s="53">
+      <c r="L73" s="43">
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>325</v>
       </c>
       <c r="C74" t="s">
         <v>326</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="43">
         <v>25586</v>
       </c>
       <c r="G74" t="s">
@@ -7444,27 +7448,27 @@
       <c r="H74" t="s">
         <v>327</v>
       </c>
-      <c r="I74" s="53">
+      <c r="I74" s="43">
         <v>426113</v>
       </c>
-      <c r="J74" s="53">
+      <c r="J74" s="43">
         <v>112649</v>
       </c>
-      <c r="K74" s="53">
+      <c r="K74" s="43">
         <v>39472</v>
       </c>
-      <c r="L74" s="53">
+      <c r="L74" s="43">
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>328</v>
       </c>
       <c r="C75" t="s">
         <v>329</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="43">
         <v>25364</v>
       </c>
       <c r="G75" t="s">
@@ -7473,27 +7477,27 @@
       <c r="H75" t="s">
         <v>330</v>
       </c>
-      <c r="I75" s="53">
+      <c r="I75" s="43">
         <v>169636</v>
       </c>
-      <c r="J75" s="53">
+      <c r="J75" s="43">
         <v>56995</v>
       </c>
-      <c r="K75" s="53">
+      <c r="K75" s="43">
         <v>3888</v>
       </c>
-      <c r="L75" s="53">
+      <c r="L75" s="43">
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>331</v>
       </c>
-      <c r="C76" s="60" t="s">
+      <c r="C76" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="43">
         <v>8343</v>
       </c>
       <c r="E76" t="s">
@@ -7505,27 +7509,27 @@
       <c r="H76" t="s">
         <v>334</v>
       </c>
-      <c r="I76" s="53">
+      <c r="I76" s="43">
         <v>3749038</v>
       </c>
-      <c r="J76" s="53">
+      <c r="J76" s="43">
         <v>852412</v>
       </c>
-      <c r="K76" s="53">
+      <c r="K76" s="43">
         <v>319509</v>
       </c>
-      <c r="L76" s="53">
+      <c r="L76" s="43">
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>335</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="43">
         <v>25886</v>
       </c>
       <c r="E77" t="s">
@@ -7537,27 +7541,27 @@
       <c r="H77" t="s">
         <v>338</v>
       </c>
-      <c r="I77" s="53">
+      <c r="I77" s="43">
         <v>1363092</v>
       </c>
-      <c r="J77" s="53">
+      <c r="J77" s="43">
         <v>715705</v>
       </c>
-      <c r="K77" s="53">
+      <c r="K77" s="43">
         <v>63497</v>
       </c>
-      <c r="L77" s="53">
+      <c r="L77" s="43">
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="43">
         <v>8215</v>
       </c>
       <c r="E78" t="s">
@@ -7569,27 +7573,27 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="I78" s="53">
+      <c r="I78" s="43">
         <v>560763</v>
       </c>
-      <c r="J78" s="53">
+      <c r="J78" s="43">
         <v>236473</v>
       </c>
-      <c r="K78" s="53">
+      <c r="K78" s="43">
         <v>17390</v>
       </c>
-      <c r="L78" s="53">
+      <c r="L78" s="43">
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>342</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="D79" s="53">
+      <c r="D79" s="43">
         <v>27726</v>
       </c>
       <c r="E79" t="s">
@@ -7601,27 +7605,27 @@
       <c r="H79" t="s">
         <v>344</v>
       </c>
-      <c r="I79" s="53">
+      <c r="I79" s="43">
         <v>230878</v>
       </c>
-      <c r="J79" s="53">
+      <c r="J79" s="43">
         <v>227418</v>
       </c>
-      <c r="K79" s="53">
+      <c r="K79" s="43">
         <v>5065</v>
       </c>
-      <c r="L79" s="53">
+      <c r="L79" s="43">
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>345</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="43">
         <v>6454</v>
       </c>
       <c r="E80" t="s">
@@ -7633,27 +7637,27 @@
       <c r="H80" t="s">
         <v>347</v>
       </c>
-      <c r="I80" s="53">
+      <c r="I80" s="43">
         <v>554081</v>
       </c>
-      <c r="J80" s="53">
+      <c r="J80" s="43">
         <v>250693</v>
       </c>
-      <c r="K80" s="53">
+      <c r="K80" s="43">
         <v>40312</v>
       </c>
-      <c r="L80" s="53">
+      <c r="L80" s="43">
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>348</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="43">
         <v>11048</v>
       </c>
       <c r="E81" t="s">
@@ -7665,27 +7669,27 @@
       <c r="H81" t="s">
         <v>350</v>
       </c>
-      <c r="I81" s="53">
+      <c r="I81" s="43">
         <v>17371</v>
       </c>
-      <c r="J81" s="53">
+      <c r="J81" s="43">
         <v>1121</v>
       </c>
-      <c r="K81" s="53">
+      <c r="K81" s="43">
         <v>731</v>
       </c>
-      <c r="L81" s="53">
+      <c r="L81" s="43">
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>351</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C82" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="43">
         <v>7478</v>
       </c>
       <c r="E82" t="s">
@@ -7697,27 +7701,27 @@
       <c r="H82" t="s">
         <v>353</v>
       </c>
-      <c r="I82" s="53">
+      <c r="I82" s="43">
         <v>2385946</v>
       </c>
-      <c r="J82" s="53">
+      <c r="J82" s="43">
         <v>136707</v>
       </c>
-      <c r="K82" s="53">
+      <c r="K82" s="43">
         <v>256012</v>
       </c>
-      <c r="L82" s="53">
+      <c r="L82" s="43">
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>354</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="D83" s="53">
+      <c r="D83" s="43">
         <v>5424</v>
       </c>
       <c r="E83" t="s">
@@ -7729,27 +7733,27 @@
       <c r="H83" t="s">
         <v>356</v>
       </c>
-      <c r="I83" s="53">
+      <c r="I83" s="43">
         <v>2180002</v>
       </c>
-      <c r="J83" s="53">
+      <c r="J83" s="43">
         <v>102208</v>
       </c>
-      <c r="K83" s="53">
+      <c r="K83" s="43">
         <v>237200</v>
       </c>
-      <c r="L83" s="53">
+      <c r="L83" s="43">
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="C84" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D84" s="43">
         <v>4452</v>
       </c>
       <c r="E84" t="s">
@@ -7761,27 +7765,27 @@
       <c r="H84" t="s">
         <v>359</v>
       </c>
-      <c r="I84" s="53">
+      <c r="I84" s="43">
         <v>205944</v>
       </c>
-      <c r="J84" s="53">
+      <c r="J84" s="43">
         <v>34499</v>
       </c>
-      <c r="K84" s="53">
+      <c r="K84" s="43">
         <v>18812</v>
       </c>
-      <c r="L84" s="53">
+      <c r="L84" s="43">
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>360</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="D85" s="53">
+      <c r="D85" s="43">
         <v>3903</v>
       </c>
       <c r="E85" t="s">
@@ -7793,27 +7797,27 @@
       <c r="H85" t="s">
         <v>362</v>
       </c>
-      <c r="I85" s="53">
+      <c r="I85" s="43">
         <v>2236932</v>
       </c>
-      <c r="J85" s="53">
+      <c r="J85" s="43">
         <v>1609923</v>
       </c>
-      <c r="K85" s="53">
+      <c r="K85" s="43">
         <v>55918</v>
       </c>
-      <c r="L85" s="53">
+      <c r="L85" s="43">
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>363</v>
       </c>
-      <c r="C86" s="60" t="s">
+      <c r="C86" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="43">
         <v>5966</v>
       </c>
       <c r="E86" t="s">
@@ -7825,27 +7829,27 @@
       <c r="H86" t="s">
         <v>365</v>
       </c>
-      <c r="I86" s="53">
+      <c r="I86" s="43">
         <v>1348595</v>
       </c>
-      <c r="J86" s="53">
+      <c r="J86" s="43">
         <v>909431</v>
       </c>
-      <c r="K86" s="53">
+      <c r="K86" s="43">
         <v>35128</v>
       </c>
-      <c r="L86" s="53">
+      <c r="L86" s="43">
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>366</v>
       </c>
-      <c r="C87" s="60" t="s">
+      <c r="C87" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="43">
         <v>4223</v>
       </c>
       <c r="E87" t="s">
@@ -7857,27 +7861,27 @@
       <c r="H87" t="s">
         <v>368</v>
       </c>
-      <c r="I87" s="53">
+      <c r="I87" s="43">
         <v>238595</v>
       </c>
-      <c r="J87" s="53">
+      <c r="J87" s="43">
         <v>122863</v>
       </c>
-      <c r="K87" s="53">
+      <c r="K87" s="43">
         <v>15945</v>
       </c>
-      <c r="L87" s="53">
+      <c r="L87" s="43">
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="43">
         <v>88262</v>
       </c>
       <c r="E88" t="s">
@@ -7889,27 +7893,27 @@
       <c r="H88" t="s">
         <v>372</v>
       </c>
-      <c r="I88" s="53">
+      <c r="I88" s="43">
         <v>284785</v>
       </c>
-      <c r="J88" s="53">
+      <c r="J88" s="43">
         <v>234630</v>
       </c>
-      <c r="K88" s="53">
+      <c r="K88" s="43">
         <v>5942</v>
       </c>
-      <c r="L88" s="53">
+      <c r="L88" s="43">
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>373</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="43">
         <v>20810</v>
       </c>
       <c r="E89" t="s">
@@ -7921,27 +7925,27 @@
       <c r="H89" t="s">
         <v>375</v>
       </c>
-      <c r="I89" s="53">
+      <c r="I89" s="43">
         <v>825215</v>
       </c>
-      <c r="J89" s="53">
+      <c r="J89" s="43">
         <v>551939</v>
       </c>
-      <c r="K89" s="53">
+      <c r="K89" s="43">
         <v>13242</v>
       </c>
-      <c r="L89" s="53">
+      <c r="L89" s="43">
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="D90" s="53">
+      <c r="D90" s="43">
         <v>6183</v>
       </c>
       <c r="E90" t="s">
@@ -7953,27 +7957,27 @@
       <c r="H90" t="s">
         <v>379</v>
       </c>
-      <c r="I90" s="53">
+      <c r="I90" s="43">
         <v>347961</v>
       </c>
-      <c r="J90" s="53">
+      <c r="J90" s="43">
         <v>302345</v>
       </c>
-      <c r="K90" s="53">
+      <c r="K90" s="43">
         <v>8494</v>
       </c>
-      <c r="L90" s="53">
+      <c r="L90" s="43">
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>380</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C91" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="43">
         <v>5743</v>
       </c>
       <c r="E91" t="s">
@@ -7985,27 +7989,27 @@
       <c r="H91" t="s">
         <v>382</v>
       </c>
-      <c r="I91" s="53">
+      <c r="I91" s="43">
         <v>540376</v>
       </c>
-      <c r="J91" s="53">
+      <c r="J91" s="43">
         <v>398148</v>
       </c>
-      <c r="K91" s="53">
+      <c r="K91" s="43">
         <v>12295</v>
       </c>
-      <c r="L91" s="53">
+      <c r="L91" s="43">
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>383</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C92" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="43">
         <v>25691</v>
       </c>
       <c r="E92" t="s">
@@ -8017,27 +8021,27 @@
       <c r="H92" t="s">
         <v>385</v>
       </c>
-      <c r="I92" s="53">
+      <c r="I92" s="43">
         <v>492465</v>
       </c>
-      <c r="J92" s="53">
+      <c r="J92" s="43">
         <v>371539</v>
       </c>
-      <c r="K92" s="53">
+      <c r="K92" s="43">
         <v>8972</v>
       </c>
-      <c r="L92" s="53">
+      <c r="L92" s="43">
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>386</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="43">
         <v>10560</v>
       </c>
       <c r="E93" t="s">
@@ -8049,27 +8053,27 @@
       <c r="H93" t="s">
         <v>388</v>
       </c>
-      <c r="I93" s="53">
+      <c r="I93" s="43">
         <v>47911</v>
       </c>
-      <c r="J93" s="53">
+      <c r="J93" s="43">
         <v>26608</v>
       </c>
-      <c r="K93" s="53">
+      <c r="K93" s="43">
         <v>3323</v>
       </c>
-      <c r="L93" s="53">
+      <c r="L93" s="43">
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>389</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="43">
         <v>19585</v>
       </c>
       <c r="E94" t="s">
@@ -8081,27 +8085,27 @@
       <c r="H94" t="s">
         <v>391</v>
       </c>
-      <c r="I94" s="53">
+      <c r="I94" s="43">
         <v>1571003</v>
       </c>
-      <c r="J94" s="53">
+      <c r="J94" s="43">
         <v>1265582</v>
       </c>
-      <c r="K94" s="53">
+      <c r="K94" s="43">
         <v>35545</v>
       </c>
-      <c r="L94" s="53">
+      <c r="L94" s="43">
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>392</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="43">
         <v>18298</v>
       </c>
       <c r="E95" t="s">
@@ -8113,27 +8117,27 @@
       <c r="H95" t="s">
         <v>394</v>
       </c>
-      <c r="I95" s="53">
+      <c r="I95" s="43">
         <v>233438</v>
       </c>
-      <c r="J95" s="53">
+      <c r="J95" s="43">
         <v>180447</v>
       </c>
-      <c r="K95" s="53">
+      <c r="K95" s="43">
         <v>8387</v>
       </c>
-      <c r="L95" s="53">
+      <c r="L95" s="43">
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>395</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="43">
         <v>17948</v>
       </c>
       <c r="E96" t="s">
@@ -8145,27 +8149,27 @@
       <c r="H96" t="s">
         <v>397</v>
       </c>
-      <c r="I96" s="53">
+      <c r="I96" s="43">
         <v>1337565</v>
       </c>
-      <c r="J96" s="53">
+      <c r="J96" s="43">
         <v>1085134</v>
       </c>
-      <c r="K96" s="53">
+      <c r="K96" s="43">
         <v>27158</v>
       </c>
-      <c r="L96" s="53">
+      <c r="L96" s="43">
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>398</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="43">
         <v>14034</v>
       </c>
       <c r="E97" t="s">
@@ -8177,27 +8181,27 @@
       <c r="H97" t="s">
         <v>400</v>
       </c>
-      <c r="I97" s="53">
+      <c r="I97" s="43">
         <v>644175</v>
       </c>
-      <c r="J97" s="53">
+      <c r="J97" s="43">
         <v>494895</v>
       </c>
-      <c r="K97" s="53">
+      <c r="K97" s="43">
         <v>8566</v>
       </c>
-      <c r="L97" s="53">
+      <c r="L97" s="43">
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>401</v>
       </c>
       <c r="C98" t="s">
         <v>402</v>
       </c>
-      <c r="D98" s="53">
+      <c r="D98" s="43">
         <v>7884</v>
       </c>
       <c r="G98" t="s">
@@ -8206,27 +8210,27 @@
       <c r="H98" t="s">
         <v>403</v>
       </c>
-      <c r="I98" s="53">
+      <c r="I98" s="43">
         <v>581331</v>
       </c>
-      <c r="J98" s="53">
+      <c r="J98" s="43">
         <v>489855</v>
       </c>
-      <c r="K98" s="53">
+      <c r="K98" s="43">
         <v>16768</v>
       </c>
-      <c r="L98" s="53">
+      <c r="L98" s="43">
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>404</v>
       </c>
       <c r="C99" t="s">
         <v>405</v>
       </c>
-      <c r="D99" s="53">
+      <c r="D99" s="43">
         <v>13425</v>
       </c>
       <c r="G99" t="s">
@@ -8235,27 +8239,27 @@
       <c r="H99" t="s">
         <v>406</v>
       </c>
-      <c r="I99" s="53">
+      <c r="I99" s="43">
         <v>112058</v>
       </c>
-      <c r="J99" s="53">
+      <c r="J99" s="43">
         <v>100385</v>
       </c>
-      <c r="K99" s="53">
+      <c r="K99" s="43">
         <v>1824</v>
       </c>
-      <c r="L99" s="53">
+      <c r="L99" s="43">
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>407</v>
       </c>
       <c r="C100" t="s">
         <v>408</v>
       </c>
-      <c r="D100" s="53">
+      <c r="D100" s="43">
         <v>11837</v>
       </c>
       <c r="G100" t="s">
@@ -8264,27 +8268,27 @@
       <c r="H100" t="s">
         <v>409</v>
       </c>
-      <c r="I100" s="53">
+      <c r="I100" s="43">
         <v>746773</v>
       </c>
-      <c r="J100" s="53">
+      <c r="J100" s="43">
         <v>441746</v>
       </c>
-      <c r="K100" s="53">
+      <c r="K100" s="43">
         <v>96713</v>
       </c>
-      <c r="L100" s="53">
+      <c r="L100" s="43">
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>410</v>
       </c>
       <c r="C101" t="s">
         <v>411</v>
       </c>
-      <c r="D101" s="53">
+      <c r="D101" s="43">
         <v>10007</v>
       </c>
       <c r="G101" t="s">
@@ -8293,27 +8297,27 @@
       <c r="H101" t="s">
         <v>412</v>
       </c>
-      <c r="I101" s="53">
+      <c r="I101" s="43">
         <v>193468</v>
       </c>
-      <c r="J101" s="53">
+      <c r="J101" s="43">
         <v>100888</v>
       </c>
-      <c r="K101" s="53">
+      <c r="K101" s="43">
         <v>19506</v>
       </c>
-      <c r="L101" s="53">
+      <c r="L101" s="43">
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>413</v>
       </c>
       <c r="C102" t="s">
         <v>414</v>
       </c>
-      <c r="D102" s="53">
+      <c r="D102" s="43">
         <v>45291</v>
       </c>
       <c r="G102" t="s">
@@ -8322,27 +8326,27 @@
       <c r="H102" t="s">
         <v>415</v>
       </c>
-      <c r="I102" s="53">
+      <c r="I102" s="43">
         <v>112849</v>
       </c>
-      <c r="J102" s="53">
+      <c r="J102" s="43">
         <v>52218</v>
       </c>
-      <c r="K102" s="53">
+      <c r="K102" s="43">
         <v>8029</v>
       </c>
-      <c r="L102" s="53">
+      <c r="L102" s="43">
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>416</v>
       </c>
       <c r="C103" t="s">
         <v>417</v>
       </c>
-      <c r="D103" s="53">
+      <c r="D103" s="43">
         <v>40189</v>
       </c>
       <c r="G103" t="s">
@@ -8351,27 +8355,27 @@
       <c r="H103" t="s">
         <v>418</v>
       </c>
-      <c r="I103" s="53">
+      <c r="I103" s="43">
         <v>80619</v>
       </c>
-      <c r="J103" s="53">
+      <c r="J103" s="43">
         <v>48669</v>
       </c>
-      <c r="K103" s="53">
+      <c r="K103" s="43">
         <v>11476</v>
       </c>
-      <c r="L103" s="53">
+      <c r="L103" s="43">
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>419</v>
       </c>
       <c r="C104" t="s">
         <v>420</v>
       </c>
-      <c r="D104" s="53">
+      <c r="D104" s="43">
         <v>7536</v>
       </c>
       <c r="G104" t="s">
@@ -8380,27 +8384,27 @@
       <c r="H104" t="s">
         <v>421</v>
       </c>
-      <c r="I104" s="53">
+      <c r="I104" s="43">
         <v>553304</v>
       </c>
-      <c r="J104" s="53">
+      <c r="J104" s="43">
         <v>340858</v>
       </c>
-      <c r="K104" s="53">
+      <c r="K104" s="43">
         <v>77207</v>
       </c>
-      <c r="L104" s="53">
+      <c r="L104" s="43">
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>422</v>
       </c>
       <c r="C105" t="s">
         <v>423</v>
       </c>
-      <c r="D105" s="53">
+      <c r="D105" s="43">
         <v>9269</v>
       </c>
       <c r="G105" t="s">
@@ -8409,27 +8413,27 @@
       <c r="H105" t="s">
         <v>424</v>
       </c>
-      <c r="I105" s="53">
+      <c r="I105" s="43">
         <v>157517</v>
       </c>
-      <c r="J105" s="53">
+      <c r="J105" s="43">
         <v>77673</v>
       </c>
-      <c r="K105" s="53">
+      <c r="K105" s="43">
         <v>26513</v>
       </c>
-      <c r="L105" s="53">
+      <c r="L105" s="43">
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>425</v>
       </c>
       <c r="C106" t="s">
         <v>426</v>
       </c>
-      <c r="D106" s="53">
+      <c r="D106" s="43">
         <v>18380</v>
       </c>
       <c r="G106" t="s">
@@ -8438,27 +8442,27 @@
       <c r="H106" t="s">
         <v>427</v>
       </c>
-      <c r="I106" s="53">
+      <c r="I106" s="43">
         <v>395787</v>
       </c>
-      <c r="J106" s="53">
+      <c r="J106" s="43">
         <v>263185</v>
       </c>
-      <c r="K106" s="53">
+      <c r="K106" s="43">
         <v>50694</v>
       </c>
-      <c r="L106" s="53">
+      <c r="L106" s="43">
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>428</v>
       </c>
       <c r="C107" t="s">
         <v>429</v>
       </c>
-      <c r="D107" s="53">
+      <c r="D107" s="43">
         <v>8253</v>
       </c>
       <c r="G107" t="s">
@@ -8467,27 +8471,27 @@
       <c r="H107" t="s">
         <v>430</v>
       </c>
-      <c r="I107" s="53">
+      <c r="I107" s="43">
         <v>391569</v>
       </c>
-      <c r="J107" s="53">
+      <c r="J107" s="43">
         <v>286397</v>
       </c>
-      <c r="K107" s="53">
+      <c r="K107" s="43">
         <v>21390</v>
       </c>
-      <c r="L107" s="53">
+      <c r="L107" s="43">
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>431</v>
       </c>
       <c r="C108" t="s">
         <v>432</v>
       </c>
-      <c r="D108" s="53">
+      <c r="D108" s="43">
         <v>8828</v>
       </c>
       <c r="G108" t="s">
@@ -8496,27 +8500,27 @@
       <c r="H108" t="s">
         <v>433</v>
       </c>
-      <c r="I108" s="53">
+      <c r="I108" s="43">
         <v>2339442</v>
       </c>
-      <c r="J108" s="53">
+      <c r="J108" s="43">
         <v>1846322</v>
       </c>
-      <c r="K108" s="53">
+      <c r="K108" s="43">
         <v>-24531</v>
       </c>
-      <c r="L108" s="53">
+      <c r="L108" s="43">
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>434</v>
       </c>
       <c r="C109" t="s">
         <v>435</v>
       </c>
-      <c r="D109" s="53">
+      <c r="D109" s="43">
         <v>39168</v>
       </c>
       <c r="G109" t="s">
@@ -8525,27 +8529,27 @@
       <c r="H109" t="s">
         <v>436</v>
       </c>
-      <c r="I109" s="53">
+      <c r="I109" s="43">
         <v>731280</v>
       </c>
-      <c r="J109" s="53">
+      <c r="J109" s="43">
         <v>469030</v>
       </c>
-      <c r="K109" s="53">
+      <c r="K109" s="43">
         <v>-6001</v>
       </c>
-      <c r="L109" s="53">
+      <c r="L109" s="43">
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>437</v>
       </c>
       <c r="C110" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="53">
+      <c r="D110" s="43">
         <v>28288</v>
       </c>
       <c r="G110" t="s">
@@ -8554,27 +8558,27 @@
       <c r="H110" t="s">
         <v>439</v>
       </c>
-      <c r="I110" s="53">
+      <c r="I110" s="43">
         <v>673658</v>
       </c>
-      <c r="J110" s="53">
+      <c r="J110" s="43">
         <v>409923</v>
       </c>
-      <c r="K110" s="53" t="s">
+      <c r="K110" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="L110" s="53">
+      <c r="L110" s="43">
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>441</v>
       </c>
       <c r="C111" t="s">
         <v>442</v>
       </c>
-      <c r="D111" s="53">
+      <c r="D111" s="43">
         <v>27221</v>
       </c>
       <c r="G111" t="s">
@@ -8583,27 +8587,27 @@
       <c r="H111" t="s">
         <v>443</v>
       </c>
-      <c r="I111" s="53">
+      <c r="I111" s="43">
         <v>57621</v>
       </c>
-      <c r="J111" s="53">
+      <c r="J111" s="43">
         <v>59107</v>
       </c>
-      <c r="K111" s="53">
+      <c r="K111" s="43">
         <v>-6001</v>
       </c>
-      <c r="L111" s="53">
+      <c r="L111" s="43">
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>444</v>
       </c>
       <c r="C112" t="s">
         <v>445</v>
       </c>
-      <c r="D112" s="53">
+      <c r="D112" s="43">
         <v>4004</v>
       </c>
       <c r="G112" t="s">
@@ -8612,27 +8616,27 @@
       <c r="H112" t="s">
         <v>446</v>
       </c>
-      <c r="I112" s="53">
+      <c r="I112" s="43">
         <v>1608162</v>
       </c>
-      <c r="J112" s="53">
+      <c r="J112" s="43">
         <v>1377292</v>
       </c>
-      <c r="K112" s="53">
+      <c r="K112" s="43">
         <v>-18530</v>
       </c>
-      <c r="L112" s="53">
+      <c r="L112" s="43">
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>447</v>
       </c>
       <c r="C113" t="s">
         <v>448</v>
       </c>
-      <c r="D113" s="53">
+      <c r="D113" s="43">
         <v>28050</v>
       </c>
       <c r="G113" t="s">
@@ -8641,27 +8645,27 @@
       <c r="H113" t="s">
         <v>449</v>
       </c>
-      <c r="I113" s="53">
+      <c r="I113" s="43">
         <v>1467317</v>
       </c>
-      <c r="J113" s="53">
+      <c r="J113" s="43">
         <v>1275273</v>
       </c>
-      <c r="K113" s="53" t="s">
+      <c r="K113" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="L113" s="53">
+      <c r="L113" s="43">
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>450</v>
       </c>
       <c r="C114" t="s">
         <v>451</v>
       </c>
-      <c r="D114" s="53">
+      <c r="D114" s="43">
         <v>6997</v>
       </c>
       <c r="G114" t="s">
@@ -8670,42 +8674,42 @@
       <c r="H114" t="s">
         <v>452</v>
       </c>
-      <c r="I114" s="53">
+      <c r="I114" s="43">
         <v>140845</v>
       </c>
-      <c r="J114" s="53">
+      <c r="J114" s="43">
         <v>102019</v>
       </c>
-      <c r="K114" s="53">
+      <c r="K114" s="43">
         <v>-18530</v>
       </c>
-      <c r="L114" s="53">
+      <c r="L114" s="43">
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>453</v>
       </c>
       <c r="C115" t="s">
         <v>454</v>
       </c>
-      <c r="D115" s="53">
+      <c r="D115" s="43">
         <v>7632</v>
       </c>
       <c r="H115" t="s">
         <v>455</v>
       </c>
-      <c r="I115" s="53"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I115" s="43"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>456</v>
       </c>
       <c r="C116" t="s">
         <v>457</v>
       </c>
-      <c r="D116" s="53">
+      <c r="D116" s="43">
         <v>13831</v>
       </c>
       <c r="G116" t="s">
@@ -8714,18 +8718,18 @@
       <c r="H116" t="s">
         <v>458</v>
       </c>
-      <c r="I116" s="53">
+      <c r="I116" s="43">
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>459</v>
       </c>
       <c r="C117" t="s">
         <v>460</v>
       </c>
-      <c r="D117" s="53">
+      <c r="D117" s="43">
         <v>15876</v>
       </c>
       <c r="G117" t="s">
@@ -8734,3593 +8738,3593 @@
       <c r="H117" t="s">
         <v>461</v>
       </c>
-      <c r="I117" s="53">
+      <c r="I117" s="43">
         <v>12630266</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>462</v>
       </c>
       <c r="C118" t="s">
         <v>463</v>
       </c>
-      <c r="D118" s="53">
+      <c r="D118" s="43">
         <v>30700</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>464</v>
       </c>
       <c r="C119" t="s">
         <v>465</v>
       </c>
-      <c r="D119" s="53">
+      <c r="D119" s="43">
         <v>9198</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>466</v>
       </c>
       <c r="C120" t="s">
         <v>467</v>
       </c>
-      <c r="D120" s="53">
+      <c r="D120" s="43">
         <v>28981</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>468</v>
       </c>
       <c r="C121" t="s">
         <v>469</v>
       </c>
-      <c r="D121" s="53">
+      <c r="D121" s="43">
         <v>21607</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>470</v>
       </c>
       <c r="C122" t="s">
         <v>471</v>
       </c>
-      <c r="D122" s="53">
+      <c r="D122" s="43">
         <v>6176</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>472</v>
       </c>
       <c r="C123" t="s">
         <v>473</v>
       </c>
-      <c r="D123" s="53">
+      <c r="D123" s="43">
         <v>26748</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>474</v>
       </c>
       <c r="C124" t="s">
         <v>475</v>
       </c>
-      <c r="D124" s="53">
+      <c r="D124" s="43">
         <v>4893</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>476</v>
       </c>
       <c r="C125" t="s">
         <v>477</v>
       </c>
-      <c r="D125" s="53">
+      <c r="D125" s="43">
         <v>2064</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>478</v>
       </c>
       <c r="C126" t="s">
         <v>479</v>
       </c>
-      <c r="D126" s="53">
+      <c r="D126" s="43">
         <v>21334</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>480</v>
       </c>
       <c r="C127" t="s">
         <v>481</v>
       </c>
-      <c r="D127" s="53">
+      <c r="D127" s="43">
         <v>4558</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>482</v>
       </c>
       <c r="C128" t="s">
         <v>483</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="43">
         <v>32747</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>484</v>
       </c>
       <c r="C129" t="s">
         <v>485</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="43">
         <v>6678</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>486</v>
       </c>
       <c r="C130" t="s">
         <v>487</v>
       </c>
-      <c r="D130" s="53">
+      <c r="D130" s="43">
         <v>6497</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>488</v>
       </c>
       <c r="C131" t="s">
         <v>489</v>
       </c>
-      <c r="D131" s="53">
+      <c r="D131" s="43">
         <v>8423</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>490</v>
       </c>
       <c r="C132" t="s">
         <v>491</v>
       </c>
-      <c r="D132" s="53">
+      <c r="D132" s="43">
         <v>8202</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>492</v>
       </c>
       <c r="C133" t="s">
         <v>493</v>
       </c>
-      <c r="D133" s="53">
+      <c r="D133" s="43">
         <v>9125</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>494</v>
       </c>
       <c r="C134" t="s">
         <v>495</v>
       </c>
-      <c r="D134" s="53">
+      <c r="D134" s="43">
         <v>15140</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>496</v>
       </c>
       <c r="C135" t="s">
         <v>497</v>
       </c>
-      <c r="D135" s="53">
+      <c r="D135" s="43">
         <v>3683</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>498</v>
       </c>
       <c r="C136" t="s">
         <v>499</v>
       </c>
-      <c r="D136" s="53">
+      <c r="D136" s="43">
         <v>4321</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>500</v>
       </c>
       <c r="C137" t="s">
         <v>501</v>
       </c>
-      <c r="D137" s="53">
+      <c r="D137" s="43">
         <v>27555</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>502</v>
       </c>
       <c r="C138" t="s">
         <v>503</v>
       </c>
-      <c r="D138" s="53">
+      <c r="D138" s="43">
         <v>10106</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>504</v>
       </c>
       <c r="C139" t="s">
         <v>505</v>
       </c>
-      <c r="D139" s="53">
+      <c r="D139" s="43">
         <v>16822</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>506</v>
       </c>
       <c r="C140" t="s">
         <v>507</v>
       </c>
-      <c r="D140" s="53">
+      <c r="D140" s="43">
         <v>27754</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>508</v>
       </c>
       <c r="C141" t="s">
         <v>509</v>
       </c>
-      <c r="D141" s="53">
+      <c r="D141" s="43">
         <v>3250</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>510</v>
       </c>
       <c r="C142" t="s">
         <v>511</v>
       </c>
-      <c r="D142" s="53">
+      <c r="D142" s="43">
         <v>5866</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>512</v>
       </c>
       <c r="C143" t="s">
         <v>513</v>
       </c>
-      <c r="D143" s="53">
+      <c r="D143" s="43">
         <v>2845</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>514</v>
       </c>
       <c r="C144" t="s">
         <v>515</v>
       </c>
-      <c r="D144" s="53">
+      <c r="D144" s="43">
         <v>22220</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>516</v>
       </c>
       <c r="C145" t="s">
         <v>517</v>
       </c>
-      <c r="D145" s="53">
+      <c r="D145" s="43">
         <v>11611</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>518</v>
       </c>
       <c r="C146" t="s">
         <v>519</v>
       </c>
-      <c r="D146" s="53">
+      <c r="D146" s="43">
         <v>12846</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>520</v>
       </c>
       <c r="C147" t="s">
         <v>521</v>
       </c>
-      <c r="D147" s="53">
+      <c r="D147" s="43">
         <v>8291</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>522</v>
       </c>
       <c r="C148" t="s">
         <v>523</v>
       </c>
-      <c r="D148" s="53">
+      <c r="D148" s="43">
         <v>10778</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>524</v>
       </c>
       <c r="C149" t="s">
         <v>525</v>
       </c>
-      <c r="D149" s="53">
+      <c r="D149" s="43">
         <v>11850</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>526</v>
       </c>
       <c r="C150" t="s">
         <v>527</v>
       </c>
-      <c r="D150" s="53">
+      <c r="D150" s="43">
         <v>33887</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>528</v>
       </c>
       <c r="C151" t="s">
         <v>529</v>
       </c>
-      <c r="D151" s="53">
+      <c r="D151" s="43">
         <v>6694</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>530</v>
       </c>
       <c r="C152" t="s">
         <v>531</v>
       </c>
-      <c r="D152" s="53">
+      <c r="D152" s="43">
         <v>57088</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>532</v>
       </c>
       <c r="C153" t="s">
         <v>533</v>
       </c>
-      <c r="D153" s="53">
+      <c r="D153" s="43">
         <v>20663</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>534</v>
       </c>
       <c r="C154" t="s">
         <v>535</v>
       </c>
-      <c r="D154" s="53">
+      <c r="D154" s="43">
         <v>32586</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>536</v>
       </c>
       <c r="C155" t="s">
         <v>537</v>
       </c>
-      <c r="D155" s="53">
+      <c r="D155" s="43">
         <v>28912</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>538</v>
       </c>
       <c r="C156" t="s">
         <v>539</v>
       </c>
-      <c r="D156" s="53">
+      <c r="D156" s="43">
         <v>47917</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>540</v>
       </c>
       <c r="C157" t="s">
         <v>541</v>
       </c>
-      <c r="D157" s="53">
+      <c r="D157" s="43">
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>542</v>
       </c>
       <c r="C158" t="s">
         <v>543</v>
       </c>
-      <c r="D158" s="53">
+      <c r="D158" s="43">
         <v>11888</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>544</v>
       </c>
       <c r="C159" t="s">
         <v>545</v>
       </c>
-      <c r="D159" s="53">
+      <c r="D159" s="43">
         <v>5417</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>546</v>
       </c>
       <c r="C160" t="s">
         <v>547</v>
       </c>
-      <c r="D160" s="53">
+      <c r="D160" s="43">
         <v>11523</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>548</v>
       </c>
       <c r="C161" t="s">
         <v>549</v>
       </c>
-      <c r="D161" s="53">
+      <c r="D161" s="43">
         <v>17491</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>550</v>
       </c>
       <c r="C162" t="s">
         <v>551</v>
       </c>
-      <c r="D162" s="53">
+      <c r="D162" s="43">
         <v>10002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>552</v>
       </c>
       <c r="C163" t="s">
         <v>553</v>
       </c>
-      <c r="D163" s="53">
+      <c r="D163" s="43">
         <v>12072</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>554</v>
       </c>
       <c r="C164" t="s">
         <v>555</v>
       </c>
-      <c r="D164" s="53">
+      <c r="D164" s="43">
         <v>2914</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>556</v>
       </c>
       <c r="C165" t="s">
         <v>557</v>
       </c>
-      <c r="D165" s="53">
+      <c r="D165" s="43">
         <v>2916</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>558</v>
       </c>
       <c r="C166" t="s">
         <v>559</v>
       </c>
-      <c r="D166" s="53">
+      <c r="D166" s="43">
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>560</v>
       </c>
       <c r="C167" t="s">
         <v>561</v>
       </c>
-      <c r="D167" s="53">
+      <c r="D167" s="43">
         <v>11324</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>562</v>
       </c>
       <c r="C168" t="s">
         <v>563</v>
       </c>
-      <c r="D168" s="53">
+      <c r="D168" s="43">
         <v>3539</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>564</v>
       </c>
       <c r="C169" t="s">
         <v>565</v>
       </c>
-      <c r="D169" s="53">
+      <c r="D169" s="43">
         <v>4775</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>566</v>
       </c>
       <c r="C170" t="s">
         <v>567</v>
       </c>
-      <c r="D170" s="53">
+      <c r="D170" s="43">
         <v>3881</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>568</v>
       </c>
       <c r="C171" t="s">
         <v>569</v>
       </c>
-      <c r="D171" s="53">
+      <c r="D171" s="43">
         <v>3862</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>570</v>
       </c>
       <c r="C172" t="s">
         <v>571</v>
       </c>
-      <c r="D172" s="53">
+      <c r="D172" s="43">
         <v>5125</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>572</v>
       </c>
       <c r="C173" t="s">
         <v>573</v>
       </c>
-      <c r="D173" s="53">
+      <c r="D173" s="43">
         <v>5491</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>574</v>
       </c>
       <c r="C174" t="s">
         <v>575</v>
       </c>
-      <c r="D174" s="53">
+      <c r="D174" s="43">
         <v>10506</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>576</v>
       </c>
       <c r="C175" t="s">
         <v>577</v>
       </c>
-      <c r="D175" s="53">
+      <c r="D175" s="43">
         <v>11675</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>578</v>
       </c>
       <c r="C176" t="s">
         <v>579</v>
       </c>
-      <c r="D176" s="53">
+      <c r="D176" s="43">
         <v>10352</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>580</v>
       </c>
       <c r="C177" t="s">
         <v>581</v>
       </c>
-      <c r="D177" s="53">
+      <c r="D177" s="43">
         <v>8071</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>582</v>
       </c>
       <c r="C178" t="s">
         <v>583</v>
       </c>
-      <c r="D178" s="53">
+      <c r="D178" s="43">
         <v>3739</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>584</v>
       </c>
       <c r="C179" t="s">
         <v>585</v>
       </c>
-      <c r="D179" s="53">
+      <c r="D179" s="43">
         <v>14491</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>586</v>
       </c>
       <c r="C180" t="s">
         <v>587</v>
       </c>
-      <c r="D180" s="53">
+      <c r="D180" s="43">
         <v>13999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>588</v>
       </c>
       <c r="C181" t="s">
         <v>589</v>
       </c>
-      <c r="D181" s="53">
+      <c r="D181" s="43">
         <v>3310</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>590</v>
       </c>
       <c r="C182" t="s">
         <v>591</v>
       </c>
-      <c r="D182" s="53">
+      <c r="D182" s="43">
         <v>10808</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>592</v>
       </c>
       <c r="C183" t="s">
         <v>593</v>
       </c>
-      <c r="D183" s="53">
+      <c r="D183" s="43">
         <v>67427</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>594</v>
       </c>
       <c r="C184" t="s">
         <v>595</v>
       </c>
-      <c r="D184" s="53">
+      <c r="D184" s="43">
         <v>267597</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>596</v>
       </c>
       <c r="C185" t="s">
         <v>597</v>
       </c>
-      <c r="D185" s="53">
+      <c r="D185" s="43">
         <v>35528</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>598</v>
       </c>
       <c r="C186" t="s">
         <v>599</v>
       </c>
-      <c r="D186" s="53">
+      <c r="D186" s="43">
         <v>14072</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>600</v>
       </c>
       <c r="C187" t="s">
         <v>601</v>
       </c>
-      <c r="D187" s="53">
+      <c r="D187" s="43">
         <v>10276</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>602</v>
       </c>
       <c r="C188" t="s">
         <v>603</v>
       </c>
-      <c r="D188" s="53">
+      <c r="D188" s="43">
         <v>4256</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>604</v>
       </c>
       <c r="C189" t="s">
         <v>605</v>
       </c>
-      <c r="D189" s="53">
+      <c r="D189" s="43">
         <v>14299</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>606</v>
       </c>
       <c r="C190" t="s">
         <v>607</v>
       </c>
-      <c r="D190" s="53">
+      <c r="D190" s="43">
         <v>34899</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>608</v>
       </c>
       <c r="C191" t="s">
         <v>609</v>
       </c>
-      <c r="D191" s="53">
+      <c r="D191" s="43">
         <v>25253</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>610</v>
       </c>
       <c r="C192" t="s">
         <v>611</v>
       </c>
-      <c r="D192" s="53">
+      <c r="D192" s="43">
         <v>38361</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>612</v>
       </c>
       <c r="C193" t="s">
         <v>613</v>
       </c>
-      <c r="D193" s="53">
+      <c r="D193" s="43">
         <v>32361</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>614</v>
       </c>
       <c r="C194" t="s">
         <v>615</v>
       </c>
-      <c r="D194" s="53">
+      <c r="D194" s="43">
         <v>37764</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>616</v>
       </c>
       <c r="C195" t="s">
         <v>617</v>
       </c>
-      <c r="D195" s="53">
+      <c r="D195" s="43">
         <v>68959</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>618</v>
       </c>
       <c r="C196" t="s">
         <v>619</v>
       </c>
-      <c r="D196" s="53">
+      <c r="D196" s="43">
         <v>26026</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>620</v>
       </c>
       <c r="C197" t="s">
         <v>621</v>
       </c>
-      <c r="D197" s="53">
+      <c r="D197" s="43">
         <v>137534</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>622</v>
       </c>
       <c r="C198" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="53">
+      <c r="D198" s="43">
         <v>50032</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>624</v>
       </c>
       <c r="C199" t="s">
         <v>625</v>
       </c>
-      <c r="D199" s="53">
+      <c r="D199" s="43">
         <v>40127</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>626</v>
       </c>
       <c r="C200" t="s">
         <v>627</v>
       </c>
-      <c r="D200" s="53">
+      <c r="D200" s="43">
         <v>21738</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>628</v>
       </c>
       <c r="C201" t="s">
         <v>629</v>
       </c>
-      <c r="D201" s="53">
+      <c r="D201" s="43">
         <v>5902</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>630</v>
       </c>
       <c r="C202" t="s">
         <v>631</v>
       </c>
-      <c r="D202" s="53">
+      <c r="D202" s="43">
         <v>21968</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>632</v>
       </c>
       <c r="C203" t="s">
         <v>633</v>
       </c>
-      <c r="D203" s="53">
+      <c r="D203" s="43">
         <v>26079</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>634</v>
       </c>
       <c r="C204" t="s">
         <v>635</v>
       </c>
-      <c r="D204" s="53">
+      <c r="D204" s="43">
         <v>9645</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>636</v>
       </c>
       <c r="C205" t="s">
         <v>637</v>
       </c>
-      <c r="D205" s="53">
+      <c r="D205" s="43">
         <v>6712</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>638</v>
       </c>
       <c r="C206" t="s">
         <v>639</v>
       </c>
-      <c r="D206" s="53">
+      <c r="D206" s="43">
         <v>4176</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>640</v>
       </c>
       <c r="C207" t="s">
         <v>641</v>
       </c>
-      <c r="D207" s="53">
+      <c r="D207" s="43">
         <v>9213</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>642</v>
       </c>
       <c r="C208" t="s">
         <v>643</v>
       </c>
-      <c r="D208" s="53">
+      <c r="D208" s="43">
         <v>15041</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>644</v>
       </c>
       <c r="C209" t="s">
         <v>645</v>
       </c>
-      <c r="D209" s="53">
+      <c r="D209" s="43">
         <v>11419</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>646</v>
       </c>
       <c r="C210" t="s">
         <v>647</v>
       </c>
-      <c r="D210" s="53">
+      <c r="D210" s="43">
         <v>4252</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>648</v>
       </c>
       <c r="C211" t="s">
         <v>649</v>
       </c>
-      <c r="D211" s="53">
+      <c r="D211" s="43">
         <v>4806</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>650</v>
       </c>
       <c r="C212" t="s">
         <v>651</v>
       </c>
-      <c r="D212" s="53">
+      <c r="D212" s="43">
         <v>3237</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>652</v>
       </c>
       <c r="C213" t="s">
         <v>653</v>
       </c>
-      <c r="D213" s="53">
+      <c r="D213" s="43">
         <v>7431</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>654</v>
       </c>
       <c r="C214" t="s">
         <v>655</v>
       </c>
-      <c r="D214" s="53">
+      <c r="D214" s="43">
         <v>17274</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>656</v>
       </c>
       <c r="C215" t="s">
         <v>657</v>
       </c>
-      <c r="D215" s="53">
+      <c r="D215" s="43">
         <v>10328</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>658</v>
       </c>
       <c r="C216" t="s">
         <v>659</v>
       </c>
-      <c r="D216" s="53">
+      <c r="D216" s="43">
         <v>43172</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>660</v>
       </c>
       <c r="C217" t="s">
         <v>661</v>
       </c>
-      <c r="D217" s="53">
+      <c r="D217" s="43">
         <v>36144</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>662</v>
       </c>
       <c r="C218" t="s">
         <v>663</v>
       </c>
-      <c r="D218" s="53">
+      <c r="D218" s="43">
         <v>4994</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>664</v>
       </c>
       <c r="C219" t="s">
         <v>665</v>
       </c>
-      <c r="D219" s="53">
+      <c r="D219" s="43">
         <v>8110</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>666</v>
       </c>
       <c r="C220" t="s">
         <v>667</v>
       </c>
-      <c r="D220" s="53">
+      <c r="D220" s="43">
         <v>5774</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>668</v>
       </c>
       <c r="C221" t="s">
         <v>669</v>
       </c>
-      <c r="D221" s="53">
+      <c r="D221" s="43">
         <v>8080</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>670</v>
       </c>
       <c r="C222" t="s">
         <v>671</v>
       </c>
-      <c r="D222" s="53">
+      <c r="D222" s="43">
         <v>10355</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>672</v>
       </c>
       <c r="C223" t="s">
         <v>673</v>
       </c>
-      <c r="D223" s="53">
+      <c r="D223" s="43">
         <v>1624</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>674</v>
       </c>
       <c r="C224" t="s">
         <v>675</v>
       </c>
-      <c r="D224" s="53">
+      <c r="D224" s="43">
         <v>3179</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>676</v>
       </c>
       <c r="C225" t="s">
         <v>677</v>
       </c>
-      <c r="D225" s="53">
+      <c r="D225" s="43">
         <v>13946</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>678</v>
       </c>
       <c r="C226" t="s">
         <v>679</v>
       </c>
-      <c r="D226" s="53">
+      <c r="D226" s="43">
         <v>30899</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>680</v>
       </c>
       <c r="C227" t="s">
         <v>681</v>
       </c>
-      <c r="D227" s="53">
+      <c r="D227" s="43">
         <v>22672</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>682</v>
       </c>
       <c r="C228" t="s">
         <v>683</v>
       </c>
-      <c r="D228" s="53">
+      <c r="D228" s="43">
         <v>34308</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>684</v>
       </c>
       <c r="C229" t="s">
         <v>685</v>
       </c>
-      <c r="D229" s="53">
+      <c r="D229" s="43">
         <v>19639</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>686</v>
       </c>
       <c r="C230" t="s">
         <v>687</v>
       </c>
-      <c r="D230" s="53">
+      <c r="D230" s="43">
         <v>10510</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>688</v>
       </c>
       <c r="C231" t="s">
         <v>689</v>
       </c>
-      <c r="D231" s="53">
+      <c r="D231" s="43">
         <v>12012</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>690</v>
       </c>
       <c r="C232" t="s">
         <v>691</v>
       </c>
-      <c r="D232" s="53">
+      <c r="D232" s="43">
         <v>35390</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>692</v>
       </c>
       <c r="C233" t="s">
         <v>693</v>
       </c>
-      <c r="D233" s="53">
+      <c r="D233" s="43">
         <v>9839</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>694</v>
       </c>
       <c r="C234" t="s">
         <v>695</v>
       </c>
-      <c r="D234" s="53">
+      <c r="D234" s="43">
         <v>34461</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>696</v>
       </c>
       <c r="C235" t="s">
         <v>697</v>
       </c>
-      <c r="D235" s="53">
+      <c r="D235" s="43">
         <v>32490</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>698</v>
       </c>
       <c r="C236" t="s">
         <v>699</v>
       </c>
-      <c r="D236" s="53">
+      <c r="D236" s="43">
         <v>35271</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>119</v>
       </c>
       <c r="C237" t="s">
         <v>700</v>
       </c>
-      <c r="D237" s="53">
+      <c r="D237" s="43">
         <v>44820</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>701</v>
       </c>
       <c r="C238" t="s">
         <v>702</v>
       </c>
-      <c r="D238" s="53">
+      <c r="D238" s="43">
         <v>24834</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>703</v>
       </c>
       <c r="C239" t="s">
         <v>704</v>
       </c>
-      <c r="D239" s="53">
+      <c r="D239" s="43">
         <v>42935</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>705</v>
       </c>
       <c r="C240" t="s">
         <v>706</v>
       </c>
-      <c r="D240" s="53">
+      <c r="D240" s="43">
         <v>7409</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>707</v>
       </c>
       <c r="C241" t="s">
         <v>708</v>
       </c>
-      <c r="D241" s="53">
+      <c r="D241" s="43">
         <v>63516</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>709</v>
       </c>
       <c r="C242" t="s">
         <v>710</v>
       </c>
-      <c r="D242" s="53">
+      <c r="D242" s="43">
         <v>151763</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>711</v>
       </c>
       <c r="C243" t="s">
         <v>712</v>
       </c>
-      <c r="D243" s="53">
+      <c r="D243" s="43">
         <v>13437</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>713</v>
       </c>
       <c r="C244" t="s">
         <v>714</v>
       </c>
-      <c r="D244" s="53">
+      <c r="D244" s="43">
         <v>41588</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>715</v>
       </c>
       <c r="C245" t="s">
         <v>716</v>
       </c>
-      <c r="D245" s="53">
+      <c r="D245" s="43">
         <v>28299</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>717</v>
       </c>
       <c r="C246" t="s">
         <v>718</v>
       </c>
-      <c r="D246" s="53">
+      <c r="D246" s="43">
         <v>35923</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>719</v>
       </c>
       <c r="C247" t="s">
         <v>720</v>
       </c>
-      <c r="D247" s="53">
+      <c r="D247" s="43">
         <v>13989</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>721</v>
       </c>
       <c r="C248" t="s">
         <v>722</v>
       </c>
-      <c r="D248" s="53">
+      <c r="D248" s="43">
         <v>10059</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>723</v>
       </c>
       <c r="C249" t="s">
         <v>724</v>
       </c>
-      <c r="D249" s="53">
+      <c r="D249" s="43">
         <v>18967</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>725</v>
       </c>
       <c r="C250" t="s">
         <v>726</v>
       </c>
-      <c r="D250" s="53">
+      <c r="D250" s="43">
         <v>26996</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>727</v>
       </c>
       <c r="C251" t="s">
         <v>728</v>
       </c>
-      <c r="D251" s="53">
+      <c r="D251" s="43">
         <v>47738</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>729</v>
       </c>
       <c r="C252" t="s">
         <v>730</v>
       </c>
-      <c r="D252" s="53">
+      <c r="D252" s="43">
         <v>33801</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>731</v>
       </c>
       <c r="C253" t="s">
         <v>732</v>
       </c>
-      <c r="D253" s="53">
+      <c r="D253" s="43">
         <v>20987</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>733</v>
       </c>
       <c r="C254" t="s">
         <v>734</v>
       </c>
-      <c r="D254" s="53">
+      <c r="D254" s="43">
         <v>17027</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>735</v>
       </c>
       <c r="C255" t="s">
         <v>736</v>
       </c>
-      <c r="D255" s="53">
+      <c r="D255" s="43">
         <v>55533</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>737</v>
       </c>
       <c r="C256" t="s">
         <v>738</v>
       </c>
-      <c r="D256" s="53">
+      <c r="D256" s="43">
         <v>7797</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>739</v>
       </c>
       <c r="C257" t="s">
         <v>740</v>
       </c>
-      <c r="D257" s="53">
+      <c r="D257" s="43">
         <v>13469</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>741</v>
       </c>
       <c r="C258" t="s">
         <v>742</v>
       </c>
-      <c r="D258" s="53">
+      <c r="D258" s="43">
         <v>7913</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>743</v>
       </c>
       <c r="C259" t="s">
         <v>744</v>
       </c>
-      <c r="D259" s="53">
+      <c r="D259" s="43">
         <v>9793</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>745</v>
       </c>
       <c r="C260" t="s">
         <v>746</v>
       </c>
-      <c r="D260" s="53">
+      <c r="D260" s="43">
         <v>4432</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>747</v>
       </c>
       <c r="C261" t="s">
         <v>748</v>
       </c>
-      <c r="D261" s="53">
+      <c r="D261" s="43">
         <v>10139</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>749</v>
       </c>
       <c r="C262" t="s">
         <v>750</v>
       </c>
-      <c r="D262" s="53">
+      <c r="D262" s="43">
         <v>11575</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>751</v>
       </c>
       <c r="C263" t="s">
         <v>752</v>
       </c>
-      <c r="D263" s="53">
+      <c r="D263" s="43">
         <v>7059</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>753</v>
       </c>
       <c r="C264" t="s">
         <v>754</v>
       </c>
-      <c r="D264" s="53">
+      <c r="D264" s="43">
         <v>6202</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>755</v>
       </c>
       <c r="C265" t="s">
         <v>756</v>
       </c>
-      <c r="D265" s="53">
+      <c r="D265" s="43">
         <v>44437</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>757</v>
       </c>
       <c r="C266" t="s">
         <v>758</v>
       </c>
-      <c r="D266" s="53">
+      <c r="D266" s="43">
         <v>29952</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>759</v>
       </c>
       <c r="C267" t="s">
         <v>760</v>
       </c>
-      <c r="D267" s="53">
+      <c r="D267" s="43">
         <v>59159</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>761</v>
       </c>
       <c r="C268" t="s">
         <v>762</v>
       </c>
-      <c r="D268" s="53">
+      <c r="D268" s="43">
         <v>20873</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>763</v>
       </c>
       <c r="C269" t="s">
         <v>764</v>
       </c>
-      <c r="D269" s="53">
+      <c r="D269" s="43">
         <v>6152</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>765</v>
       </c>
       <c r="C270" t="s">
         <v>766</v>
       </c>
-      <c r="D270" s="53">
+      <c r="D270" s="43">
         <v>11383</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>767</v>
       </c>
       <c r="C271" t="s">
         <v>768</v>
       </c>
-      <c r="D271" s="53">
+      <c r="D271" s="43">
         <v>4732</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>769</v>
       </c>
       <c r="C272" t="s">
         <v>770</v>
       </c>
-      <c r="D272" s="53">
+      <c r="D272" s="43">
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>771</v>
       </c>
       <c r="C273" t="s">
         <v>772</v>
       </c>
-      <c r="D273" s="53">
+      <c r="D273" s="43">
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>773</v>
       </c>
       <c r="C274" t="s">
         <v>774</v>
       </c>
-      <c r="D274" s="53">
+      <c r="D274" s="43">
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>775</v>
       </c>
       <c r="C275" t="s">
         <v>776</v>
       </c>
-      <c r="D275" s="53">
+      <c r="D275" s="43">
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>777</v>
       </c>
       <c r="C276" t="s">
         <v>778</v>
       </c>
-      <c r="D276" s="53">
+      <c r="D276" s="43">
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>779</v>
       </c>
       <c r="C277" t="s">
         <v>780</v>
       </c>
-      <c r="D277" s="53">
+      <c r="D277" s="43">
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>781</v>
       </c>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="44" t="s">
         <v>782</v>
       </c>
-      <c r="D278" s="53">
+      <c r="D278" s="43">
         <v>49895</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>783</v>
       </c>
-      <c r="C279" s="54" t="s">
+      <c r="C279" s="44" t="s">
         <v>784</v>
       </c>
-      <c r="D279" s="53">
+      <c r="D279" s="43">
         <v>7020</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>785</v>
       </c>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="D280" s="53">
+      <c r="D280" s="43">
         <v>6964</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>787</v>
       </c>
-      <c r="C281" s="54" t="s">
+      <c r="C281" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="D281" s="53">
+      <c r="D281" s="43">
         <v>31879</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>789</v>
       </c>
-      <c r="C282" s="54" t="s">
+      <c r="C282" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="D282" s="53">
+      <c r="D282" s="43">
         <v>117887</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>791</v>
       </c>
-      <c r="C283" s="54" t="s">
+      <c r="C283" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="D283" s="53">
+      <c r="D283" s="43">
         <v>85442</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>793</v>
       </c>
-      <c r="C284" s="54" t="s">
+      <c r="C284" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="D284" s="53">
+      <c r="D284" s="43">
         <v>14641</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>795</v>
       </c>
-      <c r="C285" s="61" t="s">
+      <c r="C285" s="51" t="s">
         <v>796</v>
       </c>
-      <c r="D285" s="53">
+      <c r="D285" s="43">
         <v>14749</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>797</v>
       </c>
-      <c r="C286" s="61" t="s">
+      <c r="C286" s="51" t="s">
         <v>798</v>
       </c>
-      <c r="D286" s="53">
+      <c r="D286" s="43">
         <v>208145</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>799</v>
       </c>
-      <c r="C287" s="61" t="s">
+      <c r="C287" s="51" t="s">
         <v>800</v>
       </c>
-      <c r="D287" s="53">
+      <c r="D287" s="43">
         <v>15995</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>801</v>
       </c>
-      <c r="C288" s="61" t="s">
+      <c r="C288" s="51" t="s">
         <v>802</v>
       </c>
-      <c r="D288" s="53">
+      <c r="D288" s="43">
         <v>30712</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>803</v>
       </c>
-      <c r="C289" s="54" t="s">
+      <c r="C289" s="44" t="s">
         <v>804</v>
       </c>
-      <c r="D289" s="53">
+      <c r="D289" s="43">
         <v>19911</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>805</v>
       </c>
-      <c r="C290" s="54" t="s">
+      <c r="C290" s="44" t="s">
         <v>806</v>
       </c>
-      <c r="D290" s="53">
+      <c r="D290" s="43">
         <v>15067</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>807</v>
       </c>
-      <c r="C291" s="54" t="s">
+      <c r="C291" s="44" t="s">
         <v>808</v>
       </c>
-      <c r="D291" s="53">
+      <c r="D291" s="43">
         <v>27773</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>809</v>
       </c>
-      <c r="C292" s="54" t="s">
+      <c r="C292" s="44" t="s">
         <v>810</v>
       </c>
-      <c r="D292" s="53">
+      <c r="D292" s="43">
         <v>12847</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>811</v>
       </c>
-      <c r="C293" s="54" t="s">
+      <c r="C293" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="D293" s="53">
+      <c r="D293" s="43">
         <v>38140</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>813</v>
       </c>
-      <c r="C294" s="54" t="s">
+      <c r="C294" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="D294" s="53">
+      <c r="D294" s="43">
         <v>42475</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>815</v>
       </c>
-      <c r="C295" s="54" t="s">
+      <c r="C295" s="44" t="s">
         <v>816</v>
       </c>
-      <c r="D295" s="53">
+      <c r="D295" s="43">
         <v>5006</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>817</v>
       </c>
-      <c r="C296" s="54" t="s">
+      <c r="C296" s="44" t="s">
         <v>818</v>
       </c>
-      <c r="D296" s="53">
+      <c r="D296" s="43">
         <v>40978</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>819</v>
       </c>
       <c r="C297" t="s">
         <v>820</v>
       </c>
-      <c r="D297" s="53">
+      <c r="D297" s="43">
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>821</v>
       </c>
       <c r="C298" t="s">
         <v>822</v>
       </c>
-      <c r="D298" s="53">
+      <c r="D298" s="43">
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>823</v>
       </c>
       <c r="C299" t="s">
         <v>824</v>
       </c>
-      <c r="D299" s="53">
+      <c r="D299" s="43">
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>825</v>
       </c>
       <c r="C300" t="s">
         <v>826</v>
       </c>
-      <c r="D300" s="53">
+      <c r="D300" s="43">
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>827</v>
       </c>
       <c r="C301" t="s">
         <v>828</v>
       </c>
-      <c r="D301" s="53">
+      <c r="D301" s="43">
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>829</v>
       </c>
       <c r="C302" t="s">
         <v>830</v>
       </c>
-      <c r="D302" s="53">
+      <c r="D302" s="43">
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>831</v>
       </c>
       <c r="C303" t="s">
         <v>832</v>
       </c>
-      <c r="D303" s="53">
+      <c r="D303" s="43">
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>833</v>
       </c>
       <c r="C304" t="s">
         <v>834</v>
       </c>
-      <c r="D304" s="53">
+      <c r="D304" s="43">
         <v>20488</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>835</v>
       </c>
       <c r="C305" t="s">
         <v>836</v>
       </c>
-      <c r="D305" s="53">
+      <c r="D305" s="43">
         <v>5369</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>837</v>
       </c>
       <c r="C306" t="s">
         <v>838</v>
       </c>
-      <c r="D306" s="53">
+      <c r="D306" s="43">
         <v>17928</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>839</v>
       </c>
       <c r="C307" t="s">
         <v>840</v>
       </c>
-      <c r="D307" s="53">
+      <c r="D307" s="43">
         <v>124484</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>841</v>
       </c>
       <c r="C308" t="s">
         <v>842</v>
       </c>
-      <c r="D308" s="53">
+      <c r="D308" s="43">
         <v>219053</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>843</v>
       </c>
       <c r="C309" t="s">
         <v>844</v>
       </c>
-      <c r="D309" s="53">
+      <c r="D309" s="43">
         <v>171121</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>845</v>
       </c>
       <c r="C310" t="s">
         <v>846</v>
       </c>
-      <c r="D310" s="53">
+      <c r="D310" s="43">
         <v>179070</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>847</v>
       </c>
       <c r="C311" t="s">
         <v>848</v>
       </c>
-      <c r="D311" s="53">
+      <c r="D311" s="43">
         <v>242634</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>849</v>
       </c>
       <c r="C312" t="s">
         <v>850</v>
       </c>
-      <c r="D312" s="53">
+      <c r="D312" s="43">
         <v>176440</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>851</v>
       </c>
       <c r="C313" t="s">
         <v>852</v>
       </c>
-      <c r="D313" s="53">
+      <c r="D313" s="43">
         <v>148392</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>853</v>
       </c>
       <c r="C314" t="s">
         <v>854</v>
       </c>
-      <c r="D314" s="53">
+      <c r="D314" s="43">
         <v>146367</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>855</v>
       </c>
       <c r="C315" t="s">
         <v>856</v>
       </c>
-      <c r="D315" s="53">
+      <c r="D315" s="43">
         <v>322061</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>857</v>
       </c>
       <c r="C316" t="s">
         <v>858</v>
       </c>
-      <c r="D316" s="53">
+      <c r="D316" s="43">
         <v>83011</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>859</v>
       </c>
       <c r="C317" t="s">
         <v>860</v>
       </c>
-      <c r="D317" s="53">
+      <c r="D317" s="43">
         <v>38123</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>861</v>
       </c>
       <c r="C318" t="s">
         <v>862</v>
       </c>
-      <c r="D318" s="53">
+      <c r="D318" s="43">
         <v>279078</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>863</v>
       </c>
       <c r="C319" t="s">
         <v>864</v>
       </c>
-      <c r="D319" s="53">
+      <c r="D319" s="43">
         <v>227964</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>865</v>
       </c>
       <c r="C320" t="s">
         <v>866</v>
       </c>
-      <c r="D320" s="53">
+      <c r="D320" s="43">
         <v>230215</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>867</v>
       </c>
       <c r="C321" t="s">
         <v>868</v>
       </c>
-      <c r="D321" s="53">
+      <c r="D321" s="43">
         <v>140227</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>869</v>
       </c>
       <c r="C322" t="s">
         <v>870</v>
       </c>
-      <c r="D322" s="53">
+      <c r="D322" s="43">
         <v>101522</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>871</v>
       </c>
       <c r="C323" t="s">
         <v>872</v>
       </c>
-      <c r="D323" s="53">
+      <c r="D323" s="43">
         <v>92474</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>873</v>
       </c>
       <c r="C324" t="s">
         <v>874</v>
       </c>
-      <c r="D324" s="53">
+      <c r="D324" s="43">
         <v>137915</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>875</v>
       </c>
       <c r="C325" t="s">
         <v>876</v>
       </c>
-      <c r="D325" s="53">
+      <c r="D325" s="43">
         <v>229646</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>877</v>
       </c>
       <c r="C326" t="s">
         <v>878</v>
       </c>
-      <c r="D326" s="53">
+      <c r="D326" s="43">
         <v>57722</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>879</v>
       </c>
       <c r="C327" t="s">
         <v>880</v>
       </c>
-      <c r="D327" s="53">
+      <c r="D327" s="43">
         <v>35581</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>881</v>
       </c>
       <c r="C328" t="s">
         <v>882</v>
       </c>
-      <c r="D328" s="53">
+      <c r="D328" s="43">
         <v>43933</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>883</v>
       </c>
       <c r="C329" t="s">
         <v>884</v>
       </c>
-      <c r="D329" s="53">
+      <c r="D329" s="43">
         <v>68922</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>885</v>
       </c>
       <c r="C330" t="s">
         <v>886</v>
       </c>
-      <c r="D330" s="53">
+      <c r="D330" s="43">
         <v>211318</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>887</v>
       </c>
       <c r="C331" t="s">
         <v>888</v>
       </c>
-      <c r="D331" s="53">
+      <c r="D331" s="43">
         <v>82025</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>889</v>
       </c>
       <c r="C332" t="s">
         <v>890</v>
       </c>
-      <c r="D332" s="53">
+      <c r="D332" s="43">
         <v>47194</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>891</v>
       </c>
       <c r="C333" t="s">
         <v>892</v>
       </c>
-      <c r="D333" s="53">
+      <c r="D333" s="43">
         <v>332550</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>893</v>
       </c>
       <c r="C334" t="s">
         <v>894</v>
       </c>
-      <c r="D334" s="53">
+      <c r="D334" s="43">
         <v>65769</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>895</v>
       </c>
       <c r="C335" t="s">
         <v>896</v>
       </c>
-      <c r="D335" s="53">
+      <c r="D335" s="43">
         <v>43699</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>897</v>
       </c>
       <c r="C336" t="s">
         <v>898</v>
       </c>
-      <c r="D336" s="53">
+      <c r="D336" s="43">
         <v>137453</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>899</v>
       </c>
       <c r="C337" t="s">
         <v>900</v>
       </c>
-      <c r="D337" s="53">
+      <c r="D337" s="43">
         <v>80430</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>901</v>
       </c>
       <c r="C338" t="s">
         <v>902</v>
       </c>
-      <c r="D338" s="53">
+      <c r="D338" s="43">
         <v>120074</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>903</v>
       </c>
       <c r="C339" t="s">
         <v>904</v>
       </c>
-      <c r="D339" s="53">
+      <c r="D339" s="43">
         <v>27110</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>905</v>
       </c>
       <c r="C340" t="s">
         <v>906</v>
       </c>
-      <c r="D340" s="53">
+      <c r="D340" s="43">
         <v>29340</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>907</v>
       </c>
       <c r="C341" t="s">
         <v>908</v>
       </c>
-      <c r="D341" s="53">
+      <c r="D341" s="43">
         <v>38375</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>909</v>
       </c>
       <c r="C342" t="s">
         <v>910</v>
       </c>
-      <c r="D342" s="53">
+      <c r="D342" s="43">
         <v>14438</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>911</v>
       </c>
       <c r="C343" t="s">
         <v>912</v>
       </c>
-      <c r="D343" s="53">
+      <c r="D343" s="43">
         <v>212383</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>913</v>
       </c>
       <c r="C344" t="s">
         <v>914</v>
       </c>
-      <c r="D344" s="53">
+      <c r="D344" s="43">
         <v>126697</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>915</v>
       </c>
       <c r="C345" t="s">
         <v>916</v>
       </c>
-      <c r="D345" s="53">
+      <c r="D345" s="43">
         <v>16643</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>917</v>
       </c>
       <c r="C346" t="s">
         <v>918</v>
       </c>
-      <c r="D346" s="53">
+      <c r="D346" s="43">
         <v>83920</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>919</v>
       </c>
       <c r="C347" t="s">
         <v>920</v>
       </c>
-      <c r="D347" s="53">
+      <c r="D347" s="43">
         <v>97373</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>921</v>
       </c>
       <c r="C348" t="s">
         <v>922</v>
       </c>
-      <c r="D348" s="53">
+      <c r="D348" s="43">
         <v>334092</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>923</v>
       </c>
       <c r="C349" t="s">
         <v>924</v>
       </c>
-      <c r="D349" s="53">
+      <c r="D349" s="43">
         <v>261627</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>925</v>
       </c>
       <c r="C350" t="s">
         <v>926</v>
       </c>
-      <c r="D350" s="53">
+      <c r="D350" s="43">
         <v>45066</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>927</v>
       </c>
       <c r="C351" t="s">
         <v>928</v>
       </c>
-      <c r="D351" s="53">
+      <c r="D351" s="43">
         <v>148620</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>929</v>
       </c>
       <c r="C352" t="s">
         <v>930</v>
       </c>
-      <c r="D352" s="53">
+      <c r="D352" s="43">
         <v>132937</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>931</v>
       </c>
       <c r="C353" t="s">
         <v>932</v>
       </c>
-      <c r="D353" s="53">
+      <c r="D353" s="43">
         <v>9245</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>933</v>
       </c>
       <c r="C354" t="s">
         <v>934</v>
       </c>
-      <c r="D354" s="53">
+      <c r="D354" s="43">
         <v>296293</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>935</v>
       </c>
       <c r="C355" t="s">
         <v>936</v>
       </c>
-      <c r="D355" s="53">
+      <c r="D355" s="43">
         <v>520425</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>937</v>
       </c>
       <c r="C356" t="s">
         <v>938</v>
       </c>
-      <c r="D356" s="53">
+      <c r="D356" s="43">
         <v>349439</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>939</v>
       </c>
       <c r="C357" t="s">
         <v>940</v>
       </c>
-      <c r="D357" s="53">
+      <c r="D357" s="43">
         <v>218793</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>941</v>
       </c>
       <c r="C358" t="s">
         <v>942</v>
       </c>
-      <c r="D358" s="53">
+      <c r="D358" s="43">
         <v>88034</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>943</v>
       </c>
       <c r="C359" t="s">
         <v>944</v>
       </c>
-      <c r="D359" s="53">
+      <c r="D359" s="43">
         <v>586732</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>945</v>
       </c>
       <c r="C360" t="s">
         <v>946</v>
       </c>
-      <c r="D360" s="53">
+      <c r="D360" s="43">
         <v>344723</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>947</v>
       </c>
       <c r="C361" t="s">
         <v>948</v>
       </c>
-      <c r="D361" s="53">
+      <c r="D361" s="43">
         <v>163544</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>949</v>
       </c>
       <c r="C362" t="s">
         <v>950</v>
       </c>
-      <c r="D362" s="53">
+      <c r="D362" s="43">
         <v>1416584</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>951</v>
       </c>
       <c r="C363" t="s">
         <v>952</v>
       </c>
-      <c r="D363" s="53">
+      <c r="D363" s="43">
         <v>530391</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>953</v>
       </c>
       <c r="C364" t="s">
         <v>954</v>
       </c>
-      <c r="D364" s="53">
+      <c r="D364" s="43">
         <v>1123901</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>955</v>
       </c>
       <c r="C365" t="s">
         <v>956</v>
       </c>
-      <c r="D365" s="53">
+      <c r="D365" s="43">
         <v>61256</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>957</v>
       </c>
       <c r="C366" t="s">
         <v>958</v>
       </c>
-      <c r="D366" s="53">
+      <c r="D366" s="43">
         <v>77621</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>959</v>
       </c>
       <c r="C367" t="s">
         <v>960</v>
       </c>
-      <c r="D367" s="53">
+      <c r="D367" s="43">
         <v>29242</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>961</v>
       </c>
       <c r="C368" t="s">
         <v>962</v>
       </c>
-      <c r="D368" s="53">
+      <c r="D368" s="43">
         <v>161188</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>963</v>
       </c>
       <c r="C369" t="s">
         <v>964</v>
       </c>
-      <c r="D369" s="53">
+      <c r="D369" s="43">
         <v>331383</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>965</v>
       </c>
       <c r="C370" t="s">
         <v>966</v>
       </c>
-      <c r="D370" s="53">
+      <c r="D370" s="43">
         <v>155017</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>967</v>
       </c>
       <c r="C371" t="s">
         <v>968</v>
       </c>
-      <c r="D371" s="53">
+      <c r="D371" s="43">
         <v>163308</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>969</v>
       </c>
       <c r="C372" t="s">
         <v>970</v>
       </c>
-      <c r="D372" s="53">
+      <c r="D372" s="43">
         <v>63364</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>971</v>
       </c>
       <c r="C373" t="s">
         <v>972</v>
       </c>
-      <c r="D373" s="53">
+      <c r="D373" s="43">
         <v>193482</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>973</v>
       </c>
       <c r="C374" t="s">
         <v>974</v>
       </c>
-      <c r="D374" s="53">
+      <c r="D374" s="43">
         <v>311584</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>975</v>
       </c>
       <c r="C375" t="s">
         <v>976</v>
       </c>
-      <c r="D375" s="53">
+      <c r="D375" s="43">
         <v>232966</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>977</v>
       </c>
       <c r="C376" t="s">
         <v>978</v>
       </c>
-      <c r="D376" s="53">
+      <c r="D376" s="43">
         <v>49844</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>979</v>
       </c>
       <c r="C377" t="s">
         <v>980</v>
       </c>
-      <c r="D377" s="53">
+      <c r="D377" s="43">
         <v>202086</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>981</v>
       </c>
       <c r="C378" t="s">
         <v>982</v>
       </c>
-      <c r="D378" s="53">
+      <c r="D378" s="43">
         <v>125875</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>983</v>
       </c>
       <c r="C379" t="s">
         <v>984</v>
       </c>
-      <c r="D379" s="53">
+      <c r="D379" s="43">
         <v>33044</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>985</v>
       </c>
       <c r="C380" t="s">
         <v>986</v>
       </c>
-      <c r="D380" s="53">
+      <c r="D380" s="43">
         <v>11848</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>987</v>
       </c>
       <c r="C381" t="s">
         <v>988</v>
       </c>
-      <c r="D381" s="53">
+      <c r="D381" s="43">
         <v>36577</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>989</v>
       </c>
       <c r="C382" t="s">
         <v>990</v>
       </c>
-      <c r="D382" s="53">
+      <c r="D382" s="43">
         <v>88795</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>991</v>
       </c>
       <c r="C383" t="s">
         <v>992</v>
       </c>
-      <c r="D383" s="53">
+      <c r="D383" s="43">
         <v>561730</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>993</v>
       </c>
       <c r="C384" t="s">
         <v>994</v>
       </c>
-      <c r="D384" s="53">
+      <c r="D384" s="43">
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>995</v>
       </c>
       <c r="C385" t="s">
         <v>996</v>
       </c>
-      <c r="D385" s="53">
+      <c r="D385" s="43">
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>997</v>
       </c>
       <c r="C386" t="s">
         <v>998</v>
       </c>
-      <c r="D386" s="53">
+      <c r="D386" s="43">
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>999</v>
       </c>
       <c r="C387" t="s">
         <v>1000</v>
       </c>
-      <c r="D387" s="53">
+      <c r="D387" s="43">
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>1001</v>
       </c>
       <c r="C388" t="s">
         <v>1002</v>
       </c>
-      <c r="D388" s="53">
+      <c r="D388" s="43">
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>1003</v>
       </c>
       <c r="C389" t="s">
         <v>1004</v>
       </c>
-      <c r="D389" s="53">
+      <c r="D389" s="43">
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>1005</v>
       </c>
       <c r="C390" t="s">
         <v>1006</v>
       </c>
-      <c r="D390" s="53">
+      <c r="D390" s="43">
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>1007</v>
       </c>
       <c r="C391" t="s">
         <v>1008</v>
       </c>
-      <c r="D391" s="53">
+      <c r="D391" s="43">
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>1009</v>
       </c>
       <c r="C392" t="s">
         <v>1010</v>
       </c>
-      <c r="D392" s="53">
+      <c r="D392" s="43">
         <v>89811</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>1011</v>
       </c>
       <c r="C393" t="s">
         <v>1012</v>
       </c>
-      <c r="D393" s="53">
+      <c r="D393" s="43">
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>1013</v>
       </c>
       <c r="C394" t="s">
         <v>1014</v>
       </c>
-      <c r="D394" s="53">
+      <c r="D394" s="43">
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>1015</v>
       </c>
       <c r="C395" t="s">
         <v>1016</v>
       </c>
-      <c r="D395" s="53">
+      <c r="D395" s="43">
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>1017</v>
       </c>
       <c r="C396" t="s">
         <v>1018</v>
       </c>
-      <c r="D396" s="53">
+      <c r="D396" s="43">
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>1019</v>
       </c>
       <c r="C397" t="s">
         <v>1020</v>
       </c>
-      <c r="D397" s="53">
+      <c r="D397" s="43">
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>1021</v>
       </c>
       <c r="C398" t="s">
         <v>1022</v>
       </c>
-      <c r="D398" s="53">
+      <c r="D398" s="43">
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>1023</v>
       </c>
       <c r="C399" t="s">
         <v>1024</v>
       </c>
-      <c r="D399" s="53">
+      <c r="D399" s="43">
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>1025</v>
       </c>
       <c r="C400" t="s">
         <v>1026</v>
       </c>
-      <c r="D400" s="53">
+      <c r="D400" s="43">
         <v>53964</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>1027</v>
       </c>
       <c r="C401" t="s">
         <v>1028</v>
       </c>
-      <c r="D401" s="53">
+      <c r="D401" s="43">
         <v>75155</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>1029</v>
       </c>
       <c r="C402" t="s">
         <v>1030</v>
       </c>
-      <c r="D402" s="53">
+      <c r="D402" s="43">
         <v>35396</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>1031</v>
       </c>
       <c r="C403" t="s">
         <v>1032</v>
       </c>
-      <c r="D403" s="53">
+      <c r="D403" s="43">
         <v>813054</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>1033</v>
       </c>
       <c r="C404" t="s">
         <v>1034</v>
       </c>
-      <c r="D404" s="53">
+      <c r="D404" s="43">
         <v>184319</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>1035</v>
       </c>
       <c r="C405" t="s">
         <v>1036</v>
       </c>
-      <c r="D405" s="53">
+      <c r="D405" s="43">
         <v>46401</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>1037</v>
       </c>
       <c r="C406" t="s">
         <v>1038</v>
       </c>
-      <c r="D406" s="53">
+      <c r="D406" s="43">
         <v>93433</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>1039</v>
       </c>
       <c r="C407" t="s">
         <v>1040</v>
       </c>
-      <c r="D407" s="53">
+      <c r="D407" s="43">
         <v>48681</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>1041</v>
       </c>
       <c r="C408" t="s">
         <v>1042</v>
       </c>
-      <c r="D408" s="53">
+      <c r="D408" s="43">
         <v>45458</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>1043</v>
       </c>
       <c r="C409" t="s">
         <v>1044</v>
       </c>
-      <c r="D409" s="53">
+      <c r="D409" s="43">
         <v>22884</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>1045</v>
       </c>
       <c r="C410" t="s">
         <v>1046</v>
       </c>
-      <c r="D410" s="53">
+      <c r="D410" s="43">
         <v>45096</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>1047</v>
       </c>
       <c r="C411" t="s">
         <v>1048</v>
       </c>
-      <c r="D411" s="53">
+      <c r="D411" s="43">
         <v>41997</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>1049</v>
       </c>
       <c r="C412" t="s">
         <v>1050</v>
       </c>
-      <c r="D412" s="53">
+      <c r="D412" s="43">
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>1051</v>
       </c>
       <c r="C413" t="s">
         <v>1052</v>
       </c>
-      <c r="D413" s="53">
+      <c r="D413" s="43">
         <v>14730</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>1053</v>
       </c>
       <c r="C414" t="s">
         <v>1054</v>
       </c>
-      <c r="D414" s="53">
+      <c r="D414" s="43">
         <v>18301</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>1055</v>
       </c>
       <c r="C415" t="s">
         <v>1056</v>
       </c>
-      <c r="D415" s="53">
+      <c r="D415" s="43">
         <v>35926</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>1057</v>
       </c>
       <c r="C416" t="s">
         <v>1058</v>
       </c>
-      <c r="D416" s="53">
+      <c r="D416" s="43">
         <v>81758</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>1059</v>
       </c>
       <c r="C417" t="s">
         <v>1060</v>
       </c>
-      <c r="D417" s="53">
+      <c r="D417" s="43">
         <v>258628</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>1061</v>
       </c>
       <c r="C418" t="s">
         <v>1062</v>
       </c>
-      <c r="D418" s="53">
+      <c r="D418" s="43">
         <v>336211</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>1063</v>
       </c>
       <c r="C419" t="s">
         <v>1064</v>
       </c>
-      <c r="D419" s="53">
+      <c r="D419" s="43">
         <v>303694</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>1065</v>
       </c>
       <c r="C420" t="s">
         <v>1066</v>
       </c>
-      <c r="D420" s="53">
+      <c r="D420" s="43">
         <v>98573</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>1067</v>
       </c>
       <c r="C421" t="s">
         <v>1068</v>
       </c>
-      <c r="D421" s="53">
+      <c r="D421" s="43">
         <v>120747</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>1069</v>
       </c>
       <c r="C422" t="s">
         <v>1070</v>
       </c>
-      <c r="D422" s="53">
+      <c r="D422" s="43">
         <v>22166</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>1071</v>
       </c>
       <c r="C423" t="s">
         <v>1072</v>
       </c>
-      <c r="D423" s="53">
+      <c r="D423" s="43">
         <v>37604</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>1073</v>
       </c>
       <c r="C424" t="s">
         <v>1074</v>
       </c>
-      <c r="D424" s="53">
+      <c r="D424" s="43">
         <v>22329</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>1075</v>
       </c>
       <c r="C425" t="s">
         <v>1076</v>
       </c>
-      <c r="D425" s="53">
+      <c r="D425" s="43">
         <v>80111</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>1077</v>
       </c>
       <c r="C426" t="s">
         <v>1078</v>
       </c>
-      <c r="D426" s="53">
+      <c r="D426" s="43">
         <v>20088</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>1079</v>
       </c>
       <c r="C427" t="s">
         <v>1080</v>
       </c>
-      <c r="D427" s="53">
+      <c r="D427" s="43">
         <v>28962</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>1081</v>
       </c>
       <c r="C428" t="s">
         <v>1082</v>
       </c>
-      <c r="D428" s="53">
+      <c r="D428" s="43">
         <v>62899</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>1083</v>
       </c>
       <c r="C429" t="s">
         <v>1084</v>
       </c>
-      <c r="D429" s="53">
+      <c r="D429" s="43">
         <v>93020</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>1085</v>
       </c>
       <c r="C430" t="s">
         <v>1086</v>
       </c>
-      <c r="D430" s="53">
+      <c r="D430" s="43">
         <v>57520</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>1087</v>
       </c>
       <c r="C431" t="s">
         <v>1088</v>
       </c>
-      <c r="D431" s="53">
+      <c r="D431" s="43">
         <v>75682</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>1089</v>
       </c>
       <c r="C432" t="s">
         <v>1090</v>
       </c>
-      <c r="D432" s="53">
+      <c r="D432" s="43">
         <v>21314</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>1091</v>
       </c>
       <c r="C433" t="s">
         <v>1092</v>
       </c>
-      <c r="D433" s="53">
+      <c r="D433" s="43">
         <v>613306</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>1093</v>
       </c>
       <c r="C434" t="s">
         <v>1094</v>
       </c>
-      <c r="D434" s="53">
+      <c r="D434" s="43">
         <v>390322</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>1095</v>
       </c>
       <c r="C435" t="s">
         <v>1096</v>
       </c>
-      <c r="D435" s="53">
+      <c r="D435" s="43">
         <v>62768</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>1097</v>
       </c>
       <c r="C436" t="s">
         <v>1098</v>
       </c>
-      <c r="D436" s="53">
+      <c r="D436" s="43">
         <v>13843</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>1099</v>
       </c>
       <c r="C437" t="s">
         <v>1100</v>
       </c>
-      <c r="D437" s="53">
+      <c r="D437" s="43">
         <v>17451</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>1101</v>
       </c>
       <c r="C438" t="s">
         <v>1102</v>
       </c>
-      <c r="D438" s="53">
+      <c r="D438" s="43">
         <v>974593</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>1103</v>
       </c>
       <c r="C439" t="s">
         <v>1104</v>
       </c>
-      <c r="D439" s="53">
+      <c r="D439" s="43">
         <v>286138</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>1105</v>
       </c>
       <c r="C440" t="s">
         <v>1106</v>
       </c>
-      <c r="D440" s="53">
+      <c r="D440" s="43">
         <v>879668</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>1107</v>
       </c>
       <c r="C441" t="s">
         <v>1108</v>
       </c>
-      <c r="D441" s="53">
+      <c r="D441" s="43">
         <v>16399</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>1109</v>
       </c>
       <c r="C442" t="s">
         <v>1110</v>
       </c>
-      <c r="D442" s="53">
+      <c r="D442" s="43">
         <v>62898</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>1111</v>
       </c>
       <c r="C443" t="s">
         <v>1112</v>
       </c>
-      <c r="D443" s="53">
+      <c r="D443" s="43">
         <v>248131</v>
       </c>
     </row>
@@ -12342,236 +12346,236 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="62" t="s">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="52" t="s">
         <v>1113</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="53" t="s">
         <v>1114</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="52" t="s">
         <v>1118</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="53" t="s">
         <v>1119</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="52" t="s">
         <v>1115</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="61" t="s">
         <v>1116</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="53" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="54">
         <f>'U.S. Data for ISIC Splits'!D10/SUM('U.S. Data for ISIC Splits'!$D10:$E10)</f>
         <v>0.14952516642816915</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="55">
         <f>'U.S. Data for ISIC Splits'!E10/SUM('U.S. Data for ISIC Splits'!$D10:$E10)</f>
         <v>0.85047483357183085</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="54">
         <f>'U.S. Data for ISIC Splits'!G10/SUM('U.S. Data for ISIC Splits'!$G10:$H10)</f>
         <v>0.65678920875948088</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="55">
         <f>'U.S. Data for ISIC Splits'!H10/SUM('U.S. Data for ISIC Splits'!$G10:$H10)</f>
         <v>0.34321079124051912</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="54">
         <f>'U.S. Data for ISIC Splits'!J10/SUM('U.S. Data for ISIC Splits'!$J10:$K10)</f>
         <v>0.21731392400812641</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="55">
         <f>'U.S. Data for ISIC Splits'!K10/SUM('U.S. Data for ISIC Splits'!$J10:$K10)</f>
         <v>0.78268607599187356</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="54">
         <f>'U.S. Data for ISIC Splits'!M10/SUM('U.S. Data for ISIC Splits'!$M10:$N10)</f>
         <v>0.55927860017436182</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="55">
         <f>'U.S. Data for ISIC Splits'!N10/SUM('U.S. Data for ISIC Splits'!$M10:$N10)</f>
         <v>0.44072139982563818</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="54">
         <f>'U.S. Data for ISIC Splits'!P10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
         <v>0.80427475032164764</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="63">
         <f>'U.S. Data for ISIC Splits'!Q10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
         <v>0.16748643824657769</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="55">
         <f>'U.S. Data for ISIC Splits'!R10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
         <v>2.8238811431774698E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="54">
         <f>'U.S. Data for ISIC Splits'!D11/SUM('U.S. Data for ISIC Splits'!$D11:$E11)</f>
         <v>5.431939037152083E-2</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="55">
         <f>'U.S. Data for ISIC Splits'!E11/SUM('U.S. Data for ISIC Splits'!$D11:$E11)</f>
         <v>0.94568060962847922</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="54">
         <f>'U.S. Data for ISIC Splits'!G11/SUM('U.S. Data for ISIC Splits'!$G11:$H11)</f>
         <v>0.65678920875948088</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="55">
         <f>'U.S. Data for ISIC Splits'!H11/SUM('U.S. Data for ISIC Splits'!$G11:$H11)</f>
         <v>0.34321079124051906</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="54">
         <f>'U.S. Data for ISIC Splits'!J11/SUM('U.S. Data for ISIC Splits'!$J11:$K11)</f>
         <v>0.21731392400812641</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="55">
         <f>'U.S. Data for ISIC Splits'!K11/SUM('U.S. Data for ISIC Splits'!$J11:$K11)</f>
         <v>0.78268607599187356</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="54">
         <f>'U.S. Data for ISIC Splits'!M11/SUM('U.S. Data for ISIC Splits'!$M11:$N11)</f>
         <v>0.55927860017436182</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="55">
         <f>'U.S. Data for ISIC Splits'!N11/SUM('U.S. Data for ISIC Splits'!$M11:$N11)</f>
         <v>0.44072139982563824</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="54">
         <f>'U.S. Data for ISIC Splits'!P11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
         <v>0.80427475032164764</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="63">
         <f>'U.S. Data for ISIC Splits'!Q11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
         <v>0.16748643824657769</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="55">
         <f>'U.S. Data for ISIC Splits'!R11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
         <v>2.8238811431774698E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="56">
         <f>'U.S. Data for ISIC Splits'!D12/SUM('U.S. Data for ISIC Splits'!$D12:$E12)</f>
         <v>0.10517761128990193</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="57">
         <f>'U.S. Data for ISIC Splits'!E12/SUM('U.S. Data for ISIC Splits'!$D12:$E12)</f>
         <v>0.894822388710098</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="56">
         <f>'U.S. Data for ISIC Splits'!G12/SUM('U.S. Data for ISIC Splits'!$G12:$H12)</f>
         <v>0.65678920875948099</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="57">
         <f>'U.S. Data for ISIC Splits'!H12/SUM('U.S. Data for ISIC Splits'!$G12:$H12)</f>
         <v>0.34321079124051906</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="56">
         <f>'U.S. Data for ISIC Splits'!J12/SUM('U.S. Data for ISIC Splits'!$J12:$K12)</f>
         <v>0.21731392400812641</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="57">
         <f>'U.S. Data for ISIC Splits'!K12/SUM('U.S. Data for ISIC Splits'!$J12:$K12)</f>
         <v>0.78268607599187356</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="56">
         <f>'U.S. Data for ISIC Splits'!M12/SUM('U.S. Data for ISIC Splits'!$M12:$N12)</f>
         <v>0.55927860017436182</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="57">
         <f>'U.S. Data for ISIC Splits'!N12/SUM('U.S. Data for ISIC Splits'!$M12:$N12)</f>
         <v>0.44072139982563824</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="56">
         <f>'U.S. Data for ISIC Splits'!P12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
         <v>0.80427475032164764</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="64">
         <f>'U.S. Data for ISIC Splits'!Q12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
         <v>0.16748643824657769</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="57">
         <f>'U.S. Data for ISIC Splits'!R12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
         <v>2.8238811431774695E-2</v>
       </c>
@@ -12591,26 +12595,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="26" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="26" width="10.1640625" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="43" width="10.140625" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" customWidth="1"/>
+    <col min="29" max="43" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="70" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12634,25 +12638,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="70" t="s">
         <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="69" t="s">
         <v>1113</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="P1" s="70" t="s">
         <v>1114</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="69" t="s">
         <v>1118</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="70" t="s">
         <v>1119</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -12676,13 +12680,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="Z1" s="69" t="s">
         <v>1115</v>
       </c>
-      <c r="AA1" s="84" t="s">
+      <c r="AA1" s="74" t="s">
         <v>1116</v>
       </c>
-      <c r="AB1" s="80" t="s">
+      <c r="AB1" s="70" t="s">
         <v>1117</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -12731,7 +12735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -12739,11 +12743,11 @@
         <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
         <v>6.1517190580761986E-2</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="71">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)</f>
         <v>4.9495022154874085E-2</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="72">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)</f>
         <v>0.10511453602057504</v>
       </c>
@@ -12775,11 +12779,11 @@
         <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)</f>
         <v>2.1425789482983619E-2</v>
       </c>
-      <c r="L2" s="81">
+      <c r="L2" s="71">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
-      <c r="M2" s="82">
+      <c r="M2" s="72">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
@@ -12787,19 +12791,19 @@
         <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)</f>
         <v>2.1680370671842714E-2</v>
       </c>
-      <c r="O2" s="81">
+      <c r="O2" s="71">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)</f>
         <v>2.8480429060816683E-2</v>
       </c>
-      <c r="P2" s="82">
+      <c r="P2" s="72">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)</f>
         <v>2.848042906081668E-2</v>
       </c>
-      <c r="Q2" s="81">
+      <c r="Q2" s="71">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)</f>
         <v>4.3506251471436601E-2</v>
       </c>
-      <c r="R2" s="82">
+      <c r="R2" s="72">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)</f>
         <v>4.3506251471436608E-2</v>
       </c>
@@ -12831,15 +12835,15 @@
         <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)</f>
         <v>1.9698422822110023E-2</v>
       </c>
-      <c r="Z2" s="81">
+      <c r="Z2" s="71">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)</f>
         <v>0.13319579866756548</v>
       </c>
-      <c r="AA2" s="83">
+      <c r="AA2" s="73">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)</f>
         <v>0.13319579866756548</v>
       </c>
-      <c r="AB2" s="82">
+      <c r="AB2" s="72">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)</f>
         <v>0.13319579866756548</v>
       </c>
@@ -12904,8 +12908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q3" s="72"/>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="Q3" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/dtopasovabic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lainie Rowland\Desktop\GitHub Repos\state-eps-data-repository\AZ\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D58E8D-A4DF-924C-B0A1-7E07C7930C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFED2A3-4B6F-4464-B27E-54A2B7CC6D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1128">
   <si>
     <t>Source:</t>
   </si>
@@ -3412,6 +3412,15 @@
   </si>
   <si>
     <t>can be found in the OECD's "STAN Database for Structural Analysis," variable EMPN, at:</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -3791,7 +3800,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3938,7 +3947,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3954,6 +3962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3984,7 +3993,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4272,20 +4280,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="86">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1" s="75">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4293,197 +4304,197 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="75" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>0.9686815713640794</v>
       </c>
@@ -4510,21 +4521,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="6" customWidth="1"/>
-    <col min="3" max="24" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="27.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -4533,12 +4544,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
@@ -4582,7 +4593,7 @@
       <c r="AK3" s="84"/>
       <c r="AL3" s="85"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
@@ -4626,7 +4637,7 @@
       <c r="AK4" s="79"/>
       <c r="AL4" s="80"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
@@ -4670,7 +4681,7 @@
       <c r="AK5" s="79"/>
       <c r="AL5" s="80"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +4725,7 @@
       <c r="AK6" s="79"/>
       <c r="AL6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="120" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>44</v>
       </c>
@@ -4828,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
@@ -4944,7 +4955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>88</v>
       </c>
@@ -5060,7 +5071,7 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
@@ -5330,37 +5341,37 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="15" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" customWidth="1"/>
-    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>146</v>
       </c>
@@ -5419,7 +5430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
@@ -5452,7 +5463,7 @@
       <c r="O4" s="30"/>
       <c r="S4" s="30"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
@@ -5506,7 +5517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>123</v>
       </c>
@@ -5559,7 +5570,7 @@
       </c>
       <c r="S6" s="30"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>169</v>
       </c>
@@ -5614,12 +5625,12 @@
         <v>86048000000</v>
       </c>
       <c r="R7" s="34">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
       </c>
       <c r="S7" s="30"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>126</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>129</v>
       </c>
@@ -5720,14 +5731,14 @@
       </c>
       <c r="R9" s="37">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
+        <v>60759076237.932114</v>
       </c>
       <c r="S9" s="36">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>131</v>
       </c>
@@ -5793,14 +5804,14 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="0"/>
-        <v>2192126720.6477733</v>
+        <v>15762370235.129244</v>
       </c>
       <c r="S10" s="36">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>171</v>
       </c>
@@ -5866,14 +5877,14 @@
       </c>
       <c r="R11" s="37">
         <f t="shared" si="0"/>
-        <v>1666403744.9392712</v>
+        <v>11982187225.552788</v>
       </c>
       <c r="S11" s="36">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
@@ -5939,56 +5950,44 @@
       </c>
       <c r="R12" s="37">
         <f t="shared" si="0"/>
-        <v>4591442004.048583</v>
+        <v>33014518777.25008</v>
       </c>
       <c r="S12" s="36">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D15" s="68"/>
-      <c r="G15" s="68"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="68"/>
-      <c r="G16" s="68"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D17" s="68"/>
-      <c r="G17" s="68"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
         <v>177</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>178</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>184</v>
       </c>
@@ -6083,7 +6082,7 @@
       </c>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>187</v>
       </c>
@@ -6113,7 +6112,7 @@
       </c>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>190</v>
       </c>
@@ -6143,7 +6142,7 @@
       </c>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>196</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>205</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>208</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>211</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>217</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>220</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>223</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>226</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>229</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>232</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>235</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>238</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>241</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>244</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>248</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>251</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>254</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>257</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>260</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>263</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>266</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>269</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>272</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>275</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>279</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>283</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>286</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>289</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>292</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>295</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>298</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>301</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>304</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>307</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>310</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>313</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>316</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>319</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>322</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>325</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>328</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>331</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>335</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>339</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>342</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>345</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>348</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>351</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>354</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>357</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>360</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>363</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>366</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>369</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>373</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>376</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>380</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>383</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>386</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>389</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>392</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>395</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>398</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>401</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>404</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>407</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>410</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>413</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>416</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>419</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>422</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>425</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>428</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>431</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>434</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>437</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>441</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>444</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>447</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>450</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>453</v>
       </c>
@@ -8702,7 +8701,7 @@
       </c>
       <c r="I115" s="43"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>456</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>459</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>462</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>30700</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>464</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>466</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>468</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>21607</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>470</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>472</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>26748</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>474</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>476</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>478</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>21334</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>480</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>482</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>32747</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>484</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>486</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>488</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>490</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>492</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>494</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>496</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>498</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>500</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>27555</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>502</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>504</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>16822</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>506</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>27754</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>508</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>510</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>512</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>514</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>516</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>11611</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>518</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>12846</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>520</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>522</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>524</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>526</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>33887</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>528</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>530</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>57088</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>532</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>20663</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>534</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>32586</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>536</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>28912</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>538</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>47917</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>540</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>542</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>544</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>546</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>11523</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>548</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>17491</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>550</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>552</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>12072</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>554</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>556</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>558</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>560</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>562</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>564</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>566</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>568</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>570</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>572</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>574</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>10506</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>576</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>11675</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>578</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>580</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>582</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>584</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>586</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>588</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>590</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>592</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>67427</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>594</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>267597</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>596</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>35528</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>598</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>600</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>10276</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>602</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>604</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>14299</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>606</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>608</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>25253</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>610</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>612</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>614</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>37764</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>616</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>68959</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>618</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>26026</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>620</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>137534</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>622</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>50032</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>624</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>626</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>628</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>630</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>21968</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>632</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>26079</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>634</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>636</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>638</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>640</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>642</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>644</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>11419</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>646</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>648</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>650</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>652</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>654</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>17274</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>656</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>658</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>660</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>662</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>664</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>666</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>668</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>670</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>672</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>674</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>676</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>13946</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>678</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>30899</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>680</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>22672</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>682</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>34308</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>684</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>19639</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>686</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>10510</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>688</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>690</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>692</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>9839</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>694</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>34461</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>696</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>698</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>119</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>701</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>24834</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>703</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>705</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>707</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>63516</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>709</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>151763</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>711</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>13437</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>713</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>715</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>717</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>35923</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>719</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>13989</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>721</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>723</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>18967</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>725</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>26996</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>727</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>47738</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>729</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>33801</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>731</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>20987</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>733</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>735</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>55533</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>737</v>
       </c>
@@ -10271,7 +10270,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>739</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>13469</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>741</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>743</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>745</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>747</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>749</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>751</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>753</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>755</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>757</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>29952</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>759</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>761</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>20873</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>763</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>765</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>767</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>769</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>771</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>773</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>775</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>777</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>779</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>781</v>
       </c>
@@ -10512,8 +10511,11 @@
       <c r="D278" s="43">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>783</v>
       </c>
@@ -10523,8 +10525,11 @@
       <c r="D279" s="43">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E279" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>785</v>
       </c>
@@ -10534,8 +10539,11 @@
       <c r="D280" s="43">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>787</v>
       </c>
@@ -10545,8 +10553,11 @@
       <c r="D281" s="43">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E281" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>789</v>
       </c>
@@ -10556,8 +10567,11 @@
       <c r="D282" s="43">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>791</v>
       </c>
@@ -10567,8 +10581,11 @@
       <c r="D283" s="43">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>793</v>
       </c>
@@ -10578,8 +10595,11 @@
       <c r="D284" s="43">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E284" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>795</v>
       </c>
@@ -10589,8 +10609,11 @@
       <c r="D285" s="43">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E285" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>797</v>
       </c>
@@ -10600,8 +10623,11 @@
       <c r="D286" s="43">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E286" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>799</v>
       </c>
@@ -10611,8 +10637,11 @@
       <c r="D287" s="43">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E287" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>801</v>
       </c>
@@ -10622,8 +10651,11 @@
       <c r="D288" s="43">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E288" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>803</v>
       </c>
@@ -10633,8 +10665,11 @@
       <c r="D289" s="43">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E289" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>805</v>
       </c>
@@ -10644,8 +10679,11 @@
       <c r="D290" s="43">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E290" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>807</v>
       </c>
@@ -10655,8 +10693,11 @@
       <c r="D291" s="43">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E291" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>809</v>
       </c>
@@ -10666,8 +10707,11 @@
       <c r="D292" s="43">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E292" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>811</v>
       </c>
@@ -10677,8 +10721,11 @@
       <c r="D293" s="43">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E293" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>813</v>
       </c>
@@ -10688,8 +10735,11 @@
       <c r="D294" s="43">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E294" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>815</v>
       </c>
@@ -10699,8 +10749,11 @@
       <c r="D295" s="43">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E295" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>817</v>
       </c>
@@ -10710,8 +10763,11 @@
       <c r="D296" s="43">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E296" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>819</v>
       </c>
@@ -10722,7 +10778,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>821</v>
       </c>
@@ -10733,7 +10789,7 @@
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>823</v>
       </c>
@@ -10744,7 +10800,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>825</v>
       </c>
@@ -10755,7 +10811,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>827</v>
       </c>
@@ -10766,7 +10822,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>829</v>
       </c>
@@ -10777,7 +10833,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>831</v>
       </c>
@@ -10788,7 +10844,7 @@
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>833</v>
       </c>
@@ -10799,7 +10855,7 @@
         <v>20488</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>835</v>
       </c>
@@ -10810,7 +10866,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>837</v>
       </c>
@@ -10821,7 +10877,7 @@
         <v>17928</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>839</v>
       </c>
@@ -10832,7 +10888,7 @@
         <v>124484</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>841</v>
       </c>
@@ -10843,7 +10899,7 @@
         <v>219053</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>843</v>
       </c>
@@ -10854,7 +10910,7 @@
         <v>171121</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>845</v>
       </c>
@@ -10865,7 +10921,7 @@
         <v>179070</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>847</v>
       </c>
@@ -10876,7 +10932,7 @@
         <v>242634</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>849</v>
       </c>
@@ -10887,7 +10943,7 @@
         <v>176440</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>851</v>
       </c>
@@ -10898,7 +10954,7 @@
         <v>148392</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>853</v>
       </c>
@@ -10909,7 +10965,7 @@
         <v>146367</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>855</v>
       </c>
@@ -10920,7 +10976,7 @@
         <v>322061</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>857</v>
       </c>
@@ -10931,7 +10987,7 @@
         <v>83011</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>859</v>
       </c>
@@ -10942,7 +10998,7 @@
         <v>38123</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>861</v>
       </c>
@@ -10953,7 +11009,7 @@
         <v>279078</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>863</v>
       </c>
@@ -10964,7 +11020,7 @@
         <v>227964</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>865</v>
       </c>
@@ -10975,7 +11031,7 @@
         <v>230215</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>867</v>
       </c>
@@ -10986,7 +11042,7 @@
         <v>140227</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>869</v>
       </c>
@@ -10997,7 +11053,7 @@
         <v>101522</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>871</v>
       </c>
@@ -11008,7 +11064,7 @@
         <v>92474</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>873</v>
       </c>
@@ -11019,7 +11075,7 @@
         <v>137915</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>875</v>
       </c>
@@ -11030,7 +11086,7 @@
         <v>229646</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>877</v>
       </c>
@@ -11041,7 +11097,7 @@
         <v>57722</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>879</v>
       </c>
@@ -11052,7 +11108,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>881</v>
       </c>
@@ -11063,7 +11119,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>883</v>
       </c>
@@ -11074,7 +11130,7 @@
         <v>68922</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>885</v>
       </c>
@@ -11085,7 +11141,7 @@
         <v>211318</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>887</v>
       </c>
@@ -11096,7 +11152,7 @@
         <v>82025</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>889</v>
       </c>
@@ -11107,7 +11163,7 @@
         <v>47194</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>891</v>
       </c>
@@ -11118,7 +11174,7 @@
         <v>332550</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>893</v>
       </c>
@@ -11129,7 +11185,7 @@
         <v>65769</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>895</v>
       </c>
@@ -11140,7 +11196,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>897</v>
       </c>
@@ -11151,7 +11207,7 @@
         <v>137453</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>899</v>
       </c>
@@ -11162,7 +11218,7 @@
         <v>80430</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
         <v>901</v>
       </c>
@@ -11173,7 +11229,7 @@
         <v>120074</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>903</v>
       </c>
@@ -11184,7 +11240,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>905</v>
       </c>
@@ -11195,7 +11251,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>907</v>
       </c>
@@ -11206,7 +11262,7 @@
         <v>38375</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>909</v>
       </c>
@@ -11217,7 +11273,7 @@
         <v>14438</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>911</v>
       </c>
@@ -11228,7 +11284,7 @@
         <v>212383</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>913</v>
       </c>
@@ -11239,7 +11295,7 @@
         <v>126697</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>915</v>
       </c>
@@ -11250,7 +11306,7 @@
         <v>16643</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>917</v>
       </c>
@@ -11261,7 +11317,7 @@
         <v>83920</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>919</v>
       </c>
@@ -11272,7 +11328,7 @@
         <v>97373</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>921</v>
       </c>
@@ -11283,7 +11339,7 @@
         <v>334092</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>923</v>
       </c>
@@ -11294,7 +11350,7 @@
         <v>261627</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>925</v>
       </c>
@@ -11305,7 +11361,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>927</v>
       </c>
@@ -11316,7 +11372,7 @@
         <v>148620</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>929</v>
       </c>
@@ -11327,7 +11383,7 @@
         <v>132937</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>931</v>
       </c>
@@ -11338,7 +11394,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>933</v>
       </c>
@@ -11349,7 +11405,7 @@
         <v>296293</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>935</v>
       </c>
@@ -11360,7 +11416,7 @@
         <v>520425</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>937</v>
       </c>
@@ -11371,7 +11427,7 @@
         <v>349439</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>939</v>
       </c>
@@ -11382,7 +11438,7 @@
         <v>218793</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>941</v>
       </c>
@@ -11393,7 +11449,7 @@
         <v>88034</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>943</v>
       </c>
@@ -11404,7 +11460,7 @@
         <v>586732</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>945</v>
       </c>
@@ -11415,7 +11471,7 @@
         <v>344723</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>947</v>
       </c>
@@ -11426,7 +11482,7 @@
         <v>163544</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>949</v>
       </c>
@@ -11437,7 +11493,7 @@
         <v>1416584</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>951</v>
       </c>
@@ -11448,7 +11504,7 @@
         <v>530391</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>953</v>
       </c>
@@ -11459,7 +11515,7 @@
         <v>1123901</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>955</v>
       </c>
@@ -11470,7 +11526,7 @@
         <v>61256</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>957</v>
       </c>
@@ -11481,7 +11537,7 @@
         <v>77621</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>959</v>
       </c>
@@ -11492,7 +11548,7 @@
         <v>29242</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>961</v>
       </c>
@@ -11503,7 +11559,7 @@
         <v>161188</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>963</v>
       </c>
@@ -11514,7 +11570,7 @@
         <v>331383</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>965</v>
       </c>
@@ -11525,7 +11581,7 @@
         <v>155017</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>967</v>
       </c>
@@ -11536,7 +11592,7 @@
         <v>163308</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>969</v>
       </c>
@@ -11547,7 +11603,7 @@
         <v>63364</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>971</v>
       </c>
@@ -11558,7 +11614,7 @@
         <v>193482</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>973</v>
       </c>
@@ -11569,7 +11625,7 @@
         <v>311584</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>975</v>
       </c>
@@ -11580,7 +11636,7 @@
         <v>232966</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>977</v>
       </c>
@@ -11591,7 +11647,7 @@
         <v>49844</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>979</v>
       </c>
@@ -11602,7 +11658,7 @@
         <v>202086</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>981</v>
       </c>
@@ -11613,7 +11669,7 @@
         <v>125875</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>983</v>
       </c>
@@ -11624,7 +11680,7 @@
         <v>33044</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>985</v>
       </c>
@@ -11635,7 +11691,7 @@
         <v>11848</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>987</v>
       </c>
@@ -11646,7 +11702,7 @@
         <v>36577</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>989</v>
       </c>
@@ -11657,7 +11713,7 @@
         <v>88795</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>991</v>
       </c>
@@ -11668,7 +11724,7 @@
         <v>561730</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>993</v>
       </c>
@@ -11679,7 +11735,7 @@
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>995</v>
       </c>
@@ -11690,7 +11746,7 @@
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>997</v>
       </c>
@@ -11701,7 +11757,7 @@
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>999</v>
       </c>
@@ -11712,7 +11768,7 @@
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>1001</v>
       </c>
@@ -11723,7 +11779,7 @@
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>1003</v>
       </c>
@@ -11734,7 +11790,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>1005</v>
       </c>
@@ -11745,7 +11801,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>1007</v>
       </c>
@@ -11756,18 +11812,21 @@
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>1009</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="49" t="s">
         <v>1010</v>
       </c>
       <c r="D392" s="43">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E392" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>1011</v>
       </c>
@@ -11778,7 +11837,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>1013</v>
       </c>
@@ -11789,7 +11848,7 @@
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>1015</v>
       </c>
@@ -11800,7 +11859,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>1017</v>
       </c>
@@ -11811,7 +11870,7 @@
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>1019</v>
       </c>
@@ -11822,7 +11881,7 @@
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>1021</v>
       </c>
@@ -11833,7 +11892,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>1023</v>
       </c>
@@ -11844,7 +11903,7 @@
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>1025</v>
       </c>
@@ -11855,7 +11914,7 @@
         <v>53964</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>1027</v>
       </c>
@@ -11866,7 +11925,7 @@
         <v>75155</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>1029</v>
       </c>
@@ -11877,7 +11936,7 @@
         <v>35396</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>1031</v>
       </c>
@@ -11888,7 +11947,7 @@
         <v>813054</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>1033</v>
       </c>
@@ -11899,7 +11958,7 @@
         <v>184319</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>1035</v>
       </c>
@@ -11910,7 +11969,7 @@
         <v>46401</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>1037</v>
       </c>
@@ -11921,7 +11980,7 @@
         <v>93433</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>1039</v>
       </c>
@@ -11932,7 +11991,7 @@
         <v>48681</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>1041</v>
       </c>
@@ -11943,7 +12002,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>1043</v>
       </c>
@@ -11954,7 +12013,7 @@
         <v>22884</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>1045</v>
       </c>
@@ -11965,7 +12024,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>1047</v>
       </c>
@@ -11976,7 +12035,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>1049</v>
       </c>
@@ -11987,7 +12046,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>1051</v>
       </c>
@@ -11998,7 +12057,7 @@
         <v>14730</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>1053</v>
       </c>
@@ -12009,7 +12068,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>1055</v>
       </c>
@@ -12020,7 +12079,7 @@
         <v>35926</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>1057</v>
       </c>
@@ -12031,7 +12090,7 @@
         <v>81758</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>1059</v>
       </c>
@@ -12042,7 +12101,7 @@
         <v>258628</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>1061</v>
       </c>
@@ -12053,7 +12112,7 @@
         <v>336211</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>1063</v>
       </c>
@@ -12064,7 +12123,7 @@
         <v>303694</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>1065</v>
       </c>
@@ -12075,7 +12134,7 @@
         <v>98573</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>1067</v>
       </c>
@@ -12086,7 +12145,7 @@
         <v>120747</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>1069</v>
       </c>
@@ -12097,7 +12156,7 @@
         <v>22166</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>1071</v>
       </c>
@@ -12108,7 +12167,7 @@
         <v>37604</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>1073</v>
       </c>
@@ -12119,7 +12178,7 @@
         <v>22329</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>1075</v>
       </c>
@@ -12130,7 +12189,7 @@
         <v>80111</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>1077</v>
       </c>
@@ -12141,7 +12200,7 @@
         <v>20088</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>1079</v>
       </c>
@@ -12152,7 +12211,7 @@
         <v>28962</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>1081</v>
       </c>
@@ -12163,7 +12222,7 @@
         <v>62899</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>1083</v>
       </c>
@@ -12174,7 +12233,7 @@
         <v>93020</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>1085</v>
       </c>
@@ -12185,7 +12244,7 @@
         <v>57520</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>1087</v>
       </c>
@@ -12196,7 +12255,7 @@
         <v>75682</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>1089</v>
       </c>
@@ -12207,7 +12266,7 @@
         <v>21314</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>1091</v>
       </c>
@@ -12218,7 +12277,7 @@
         <v>613306</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>1093</v>
       </c>
@@ -12229,7 +12288,7 @@
         <v>390322</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>1095</v>
       </c>
@@ -12240,7 +12299,7 @@
         <v>62768</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>1097</v>
       </c>
@@ -12251,7 +12310,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>1099</v>
       </c>
@@ -12262,7 +12321,7 @@
         <v>17451</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>1101</v>
       </c>
@@ -12273,7 +12332,7 @@
         <v>974593</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>1103</v>
       </c>
@@ -12284,7 +12343,7 @@
         <v>286138</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>1105</v>
       </c>
@@ -12295,7 +12354,7 @@
         <v>879668</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>1107</v>
       </c>
@@ -12306,7 +12365,7 @@
         <v>16399</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>1109</v>
       </c>
@@ -12317,7 +12376,7 @@
         <v>62898</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>1111</v>
       </c>
@@ -12330,10 +12389,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{B5579375-C498-4002-96D3-8F4425FD980D}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{25BB6CA8-B61B-4BD2-BA01-105A06EF14A4}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{0F00647C-6D03-4E62-A3E4-AA5737E9FE43}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{944A3612-1AB2-43EA-A0EF-44B3D588A2C0}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{0A2CDDC6-8248-44B3-AA12-610A57421684}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{CEC2967C-5861-49FB-8980-BEFC6FF4727A}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{3761CBAC-F8BA-4960-A726-EC1941E66D35}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{2767DD6C-02C9-414F-8622-AF4FAEE28C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
@@ -12346,22 +12405,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65"/>
       <c r="B1" s="66" t="s">
         <v>144</v>
@@ -12397,7 +12456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
       <c r="B2" s="52" t="s">
         <v>142</v>
@@ -12433,7 +12492,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
         <v>111</v>
       </c>
@@ -12471,18 +12530,18 @@
       </c>
       <c r="J3" s="54">
         <f>'U.S. Data for ISIC Splits'!P10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860177</v>
       </c>
       <c r="K3" s="63">
         <f>'U.S. Data for ISIC Splits'!Q10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L3" s="55">
         <f>'U.S. Data for ISIC Splits'!R10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>2.8238811431774698E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.17283604938598873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>112</v>
       </c>
@@ -12520,18 +12579,18 @@
       </c>
       <c r="J4" s="54">
         <f>'U.S. Data for ISIC Splits'!P11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860166</v>
       </c>
       <c r="K4" s="63">
         <f>'U.S. Data for ISIC Splits'!Q11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L4" s="55">
         <f>'U.S. Data for ISIC Splits'!R11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>2.8238811431774698E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.17283604938598873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
@@ -12569,15 +12628,15 @@
       </c>
       <c r="J5" s="56">
         <f>'U.S. Data for ISIC Splits'!P12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860177</v>
       </c>
       <c r="K5" s="64">
         <f>'U.S. Data for ISIC Splits'!Q12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L5" s="57">
         <f>'U.S. Data for ISIC Splits'!R12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>2.8238811431774695E-2</v>
+        <v>0.17283604938598873</v>
       </c>
     </row>
   </sheetData>
@@ -12595,26 +12654,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="26" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="26" width="10.1796875" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="43" width="10.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
+    <col min="29" max="43" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12638,25 +12697,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="69" t="s">
         <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="68" t="s">
         <v>1113</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="69" t="s">
         <v>1114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="68" t="s">
         <v>1118</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
         <v>1119</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -12680,13 +12739,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="Z1" s="68" t="s">
         <v>1115</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="73" t="s">
         <v>1116</v>
       </c>
-      <c r="AB1" s="70" t="s">
+      <c r="AB1" s="69" t="s">
         <v>1117</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -12735,7 +12794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -12743,11 +12802,11 @@
         <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
         <v>6.1517190580761986E-2</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="70">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)</f>
         <v>4.9495022154874085E-2</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="71">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)</f>
         <v>0.10511453602057504</v>
       </c>
@@ -12779,11 +12838,11 @@
         <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)</f>
         <v>2.1425789482983619E-2</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L2" s="70">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="71">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
@@ -12791,19 +12850,19 @@
         <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)</f>
         <v>2.1680370671842714E-2</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="70">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)</f>
         <v>2.8480429060816683E-2</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="71">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)</f>
         <v>2.848042906081668E-2</v>
       </c>
-      <c r="Q2" s="71">
+      <c r="Q2" s="70">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)</f>
         <v>4.3506251471436601E-2</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="71">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)</f>
         <v>4.3506251471436608E-2</v>
       </c>
@@ -12835,15 +12894,15 @@
         <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)</f>
         <v>1.9698422822110023E-2</v>
       </c>
-      <c r="Z2" s="71">
+      <c r="Z2" s="70">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)</f>
-        <v>0.13319579866756548</v>
-      </c>
-      <c r="AA2" s="73">
+        <v>0.13319579866756545</v>
+      </c>
+      <c r="AA2" s="72">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)</f>
         <v>0.13319579866756548</v>
       </c>
-      <c r="AB2" s="72">
+      <c r="AB2" s="71">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)</f>
         <v>0.13319579866756548</v>
       </c>
@@ -12908,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="Q3" s="62"/>
     </row>
   </sheetData>
